--- a/files/control.xlsx
+++ b/files/control.xlsx
@@ -5,16 +5,17 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\visor\0 Pagina Carto\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\visor\0 Pagina Carto v2\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0450DDC3-FA30-443A-BDAE-B4D84F81B35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B28D957-7AA1-4C4D-8870-506A45AACF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="oAIJ7mB5hTa9SR1Evfc4VO8DYE+Exv6P3Y6xHXSFKIYw0z+R5utsLPllLLB49zPugY2QzZCBX4T9sHgXzb3q4g==" workbookSaltValue="WyTlDIpbcO68G/HJ0dhYQQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B9D2D91E-64B0-42E4-B8DE-EE0C82B1D562}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{B9D2D91E-64B0-42E4-B8DE-EE0C82B1D562}"/>
   </bookViews>
   <sheets>
-    <sheet name="DATOS" sheetId="1" r:id="rId1"/>
-    <sheet name="ANALISIS" sheetId="4" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="ANALISIS" sheetId="4" state="hidden" r:id="rId2"/>
     <sheet name="DASHBOARD" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -33,7 +34,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="488">
   <si>
     <t>DEPARTAMENTO</t>
   </si>
@@ -1524,6 +1525,9 @@
   </si>
   <si>
     <t>Jossef Cruz C.</t>
+  </si>
+  <si>
+    <t>(en blanco)</t>
   </si>
 </sst>
 </file>
@@ -1864,13 +1868,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1884,12 +1894,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2246,7 +2250,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[control1.xlsx]ANALISIS!TablaDinámica2</c:name>
+    <c:name>[control.xlsx]ANALISIS!TablaDinámica2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2497,9 +2501,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>ANALISIS!$A$2:$A$11</c:f>
+              <c:f>ANALISIS!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Roxana N. Mamani Ch.</c:v>
                 </c:pt>
@@ -2507,10 +2511,10 @@
                   <c:v>Carlos R. Maceda L.</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Carlos S. Flores V.</c:v>
+                  <c:v>Camilo B. Suarez R.</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Camilo B. Suarez R.</c:v>
+                  <c:v>Carlos S. Flores V.</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Diana E. Teran F.</c:v>
@@ -2525,6 +2529,9 @@
                   <c:v>Jossef Cruz C.</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>(en blanco)</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Gabriela Morales M.</c:v>
                 </c:pt>
               </c:strCache>
@@ -2532,24 +2539,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ANALISIS!$B$2:$B$11</c:f>
+              <c:f>ANALISIS!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.96</c:v>
+                  <c:v>0.79999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.71250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71</c:v>
+                  <c:v>0.64166666666666661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64166666666666661</c:v>
+                  <c:v>0.50714285714285712</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.56666666666666676</c:v>
+                  <c:v>0.48571428571428577</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.34444444444444439</c:v>
@@ -2561,6 +2568,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2839,7 +2849,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[control1.xlsx]ANALISIS!TablaDinámica4</c:name>
+    <c:name>[control.xlsx]ANALISIS!TablaDinámica4</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -3092,23 +3102,71 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>ANALISIS!$A$38:$A$39</c:f>
+              <c:f>ANALISIS!$A$38:$A$47</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Santa Cruz</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beni</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chuquisaca</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cochabamba</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>La Paz</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Oruro</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Pando</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Potosi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Tarija</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ANALISIS!$B$38:$B$39</c:f>
+              <c:f>ANALISIS!$B$38:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.46517857142857144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3346,7 +3404,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[control1.xlsx]ANALISIS!TablaDinámica2</c:name>
+    <c:name>[control.xlsx]ANALISIS!TablaDinámica2</c:name>
     <c:fmtId val="11"/>
   </c:pivotSource>
   <c:chart>
@@ -3627,9 +3685,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>ANALISIS!$A$2:$A$11</c:f>
+              <c:f>ANALISIS!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Roxana N. Mamani Ch.</c:v>
                 </c:pt>
@@ -3637,10 +3695,10 @@
                   <c:v>Carlos R. Maceda L.</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Carlos S. Flores V.</c:v>
+                  <c:v>Camilo B. Suarez R.</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Camilo B. Suarez R.</c:v>
+                  <c:v>Carlos S. Flores V.</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Diana E. Teran F.</c:v>
@@ -3655,6 +3713,9 @@
                   <c:v>Jossef Cruz C.</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>(en blanco)</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Gabriela Morales M.</c:v>
                 </c:pt>
               </c:strCache>
@@ -3662,24 +3723,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ANALISIS!$B$2:$B$11</c:f>
+              <c:f>ANALISIS!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.96</c:v>
+                  <c:v>0.79999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.71250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71</c:v>
+                  <c:v>0.64166666666666661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64166666666666661</c:v>
+                  <c:v>0.50714285714285712</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.56666666666666676</c:v>
+                  <c:v>0.48571428571428577</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.34444444444444439</c:v>
@@ -3691,6 +3752,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3863,7 +3927,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[control1.xlsx]ANALISIS!TablaDinámica4</c:name>
+    <c:name>[control.xlsx]ANALISIS!TablaDinámica4</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -4155,23 +4219,71 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>ANALISIS!$A$38:$A$39</c:f>
+              <c:f>ANALISIS!$A$38:$A$47</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Santa Cruz</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beni</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chuquisaca</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cochabamba</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>La Paz</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Oruro</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Pando</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Potosi</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Tarija</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ANALISIS!$B$38:$B$39</c:f>
+              <c:f>ANALISIS!$B$38:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.46517857142857144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6634,7 +6746,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>271183</xdr:colOff>
+      <xdr:colOff>271182</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
@@ -7584,7 +7696,9 @@
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks noMove="1" noResize="1"/>
+            </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
             <a:off x="0" y="0"/>
@@ -7638,7 +7752,7 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -7651,8 +7765,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="MUNICIPIO 1">
@@ -7662,7 +7776,9 @@
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks noChangeAspect="1" noMove="1" noResize="1"/>
+            </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
             <a:off x="0" y="0"/>
@@ -7675,7 +7791,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7685,8 +7801,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="762000" y="3272120"/>
-              <a:ext cx="9233647" cy="1759322"/>
+              <a:off x="762000" y="3279323"/>
+              <a:ext cx="9239250" cy="1768928"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7716,7 +7832,7 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -7739,7 +7855,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noChangeAspect="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7754,7 +7870,7 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -7805,8 +7921,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="11" name="TECNICO 1">
@@ -7816,7 +7932,9 @@
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks noMove="1" noResize="1"/>
+            </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
             <a:off x="0" y="0"/>
@@ -7829,7 +7947,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7839,8 +7957,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="761999" y="5208494"/>
-              <a:ext cx="9233647" cy="1078006"/>
+              <a:off x="761999" y="5225303"/>
+              <a:ext cx="9239250" cy="1088411"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -18083,20 +18201,1805 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CA555505-9087-4231-86A0-DE53A16E98A8}" name="TablaDinámica8" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B87DE172-7465-47A3-BC77-5379FF373326}" name="TablaDinámica7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A29:A30" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="26">
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="333">
+        <item x="298"/>
+        <item x="200"/>
+        <item x="225"/>
+        <item x="120"/>
+        <item x="124"/>
+        <item x="78"/>
+        <item x="179"/>
+        <item x="253"/>
+        <item x="240"/>
+        <item x="105"/>
+        <item x="213"/>
+        <item x="299"/>
+        <item x="114"/>
+        <item x="131"/>
+        <item x="130"/>
+        <item x="37"/>
+        <item x="308"/>
+        <item x="192"/>
+        <item x="208"/>
+        <item x="184"/>
+        <item x="127"/>
+        <item x="87"/>
+        <item x="235"/>
+        <item x="62"/>
+        <item x="255"/>
+        <item x="279"/>
+        <item x="324"/>
+        <item x="311"/>
+        <item x="148"/>
+        <item x="277"/>
+        <item x="27"/>
+        <item x="52"/>
+        <item x="28"/>
+        <item x="221"/>
+        <item x="320"/>
+        <item x="220"/>
+        <item x="160"/>
+        <item x="226"/>
+        <item x="83"/>
+        <item x="29"/>
+        <item x="119"/>
+        <item x="149"/>
+        <item x="259"/>
+        <item x="180"/>
+        <item x="241"/>
+        <item x="326"/>
+        <item x="296"/>
+        <item x="159"/>
+        <item x="155"/>
+        <item x="247"/>
+        <item x="305"/>
+        <item x="11"/>
+        <item x="199"/>
+        <item x="211"/>
+        <item x="307"/>
+        <item x="145"/>
+        <item x="248"/>
+        <item x="193"/>
+        <item x="218"/>
+        <item x="175"/>
+        <item x="302"/>
+        <item x="294"/>
+        <item x="110"/>
+        <item x="270"/>
+        <item x="113"/>
+        <item x="132"/>
+        <item x="244"/>
+        <item x="103"/>
+        <item x="314"/>
+        <item x="161"/>
+        <item x="123"/>
+        <item x="47"/>
+        <item x="309"/>
+        <item x="166"/>
+        <item x="157"/>
+        <item x="176"/>
+        <item x="16"/>
+        <item x="168"/>
+        <item x="4"/>
+        <item x="223"/>
+        <item x="230"/>
+        <item x="162"/>
+        <item x="169"/>
+        <item x="242"/>
+        <item x="322"/>
+        <item x="48"/>
+        <item x="268"/>
+        <item x="12"/>
+        <item x="30"/>
+        <item x="84"/>
+        <item x="263"/>
+        <item x="202"/>
+        <item x="188"/>
+        <item x="187"/>
+        <item x="0"/>
+        <item x="250"/>
+        <item x="40"/>
+        <item x="7"/>
+        <item x="73"/>
+        <item x="138"/>
+        <item x="266"/>
+        <item x="198"/>
+        <item x="269"/>
+        <item x="260"/>
+        <item x="69"/>
+        <item x="21"/>
+        <item x="278"/>
+        <item x="22"/>
+        <item x="151"/>
+        <item x="68"/>
+        <item x="31"/>
+        <item x="56"/>
+        <item x="76"/>
+        <item x="98"/>
+        <item x="267"/>
+        <item x="256"/>
+        <item x="206"/>
+        <item x="182"/>
+        <item x="164"/>
+        <item x="216"/>
+        <item x="72"/>
+        <item x="85"/>
+        <item x="276"/>
+        <item x="219"/>
+        <item x="228"/>
+        <item x="207"/>
+        <item x="170"/>
+        <item x="190"/>
+        <item x="174"/>
+        <item x="8"/>
+        <item x="254"/>
+        <item x="32"/>
+        <item x="183"/>
+        <item x="88"/>
+        <item x="295"/>
+        <item x="285"/>
+        <item x="61"/>
+        <item x="214"/>
+        <item x="258"/>
+        <item x="100"/>
+        <item x="64"/>
+        <item x="9"/>
+        <item x="232"/>
+        <item x="153"/>
+        <item x="224"/>
+        <item x="23"/>
+        <item x="135"/>
+        <item x="205"/>
+        <item x="287"/>
+        <item x="79"/>
+        <item x="77"/>
+        <item x="24"/>
+        <item x="140"/>
+        <item x="17"/>
+        <item x="191"/>
+        <item x="172"/>
+        <item x="271"/>
+        <item x="290"/>
+        <item x="25"/>
+        <item x="121"/>
+        <item x="243"/>
+        <item x="330"/>
+        <item x="95"/>
+        <item x="3"/>
+        <item x="231"/>
+        <item x="203"/>
+        <item x="237"/>
+        <item x="18"/>
+        <item x="156"/>
+        <item x="264"/>
+        <item x="134"/>
+        <item x="185"/>
+        <item x="239"/>
+        <item x="212"/>
+        <item x="284"/>
+        <item x="126"/>
+        <item x="133"/>
+        <item x="251"/>
+        <item x="319"/>
+        <item x="80"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="273"/>
+        <item x="33"/>
+        <item x="312"/>
+        <item x="89"/>
+        <item x="34"/>
+        <item x="234"/>
+        <item x="197"/>
+        <item x="281"/>
+        <item x="195"/>
+        <item x="167"/>
+        <item x="59"/>
+        <item x="178"/>
+        <item x="1"/>
+        <item x="280"/>
+        <item x="70"/>
+        <item x="2"/>
+        <item x="137"/>
+        <item x="303"/>
+        <item x="115"/>
+        <item x="189"/>
+        <item x="141"/>
+        <item x="233"/>
+        <item x="35"/>
+        <item x="289"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="13"/>
+        <item x="257"/>
+        <item x="101"/>
+        <item x="104"/>
+        <item x="297"/>
+        <item x="19"/>
+        <item x="246"/>
+        <item x="10"/>
+        <item x="310"/>
+        <item x="63"/>
+        <item x="286"/>
+        <item x="5"/>
+        <item x="112"/>
+        <item x="60"/>
+        <item x="204"/>
+        <item x="53"/>
+        <item x="44"/>
+        <item x="38"/>
+        <item x="65"/>
+        <item x="14"/>
+        <item x="54"/>
+        <item x="41"/>
+        <item x="275"/>
+        <item x="82"/>
+        <item x="15"/>
+        <item x="45"/>
+        <item x="315"/>
+        <item x="42"/>
+        <item x="154"/>
+        <item x="283"/>
+        <item x="316"/>
+        <item x="165"/>
+        <item x="46"/>
+        <item x="6"/>
+        <item x="71"/>
+        <item x="51"/>
+        <item x="43"/>
+        <item x="158"/>
+        <item x="238"/>
+        <item x="177"/>
+        <item x="261"/>
+        <item x="163"/>
+        <item x="143"/>
+        <item x="272"/>
+        <item x="236"/>
+        <item x="215"/>
+        <item x="274"/>
+        <item x="117"/>
+        <item x="150"/>
+        <item x="111"/>
+        <item x="142"/>
+        <item x="74"/>
+        <item x="173"/>
+        <item x="90"/>
+        <item x="108"/>
+        <item x="196"/>
+        <item x="313"/>
+        <item x="147"/>
+        <item x="291"/>
+        <item x="146"/>
+        <item x="93"/>
+        <item x="201"/>
+        <item x="118"/>
+        <item x="329"/>
+        <item x="81"/>
+        <item x="152"/>
+        <item x="210"/>
+        <item x="304"/>
+        <item x="323"/>
+        <item x="129"/>
+        <item x="57"/>
+        <item x="171"/>
+        <item x="102"/>
+        <item x="122"/>
+        <item x="222"/>
+        <item x="106"/>
+        <item x="262"/>
+        <item x="116"/>
+        <item x="252"/>
+        <item x="321"/>
+        <item x="86"/>
+        <item x="288"/>
+        <item x="136"/>
+        <item x="20"/>
+        <item x="58"/>
+        <item x="301"/>
+        <item x="249"/>
+        <item x="186"/>
+        <item x="317"/>
+        <item x="328"/>
+        <item x="293"/>
+        <item x="245"/>
+        <item x="39"/>
+        <item x="306"/>
+        <item x="125"/>
+        <item x="36"/>
+        <item x="181"/>
+        <item x="128"/>
+        <item x="75"/>
+        <item x="194"/>
+        <item x="99"/>
+        <item x="107"/>
+        <item x="227"/>
+        <item x="331"/>
+        <item x="282"/>
+        <item x="109"/>
+        <item x="97"/>
+        <item x="144"/>
+        <item x="96"/>
+        <item x="318"/>
+        <item x="139"/>
+        <item x="300"/>
+        <item x="209"/>
+        <item x="26"/>
+        <item x="217"/>
+        <item x="325"/>
+        <item x="92"/>
+        <item x="229"/>
+        <item x="55"/>
+        <item x="292"/>
+        <item x="91"/>
+        <item x="327"/>
+        <item x="265"/>
+        <item x="94"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="20">
+        <item m="1" x="10"/>
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="13"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="14"/>
+        <item x="4"/>
+        <item m="1" x="15"/>
+        <item x="5"/>
+        <item m="1" x="16"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item m="1" x="17"/>
+        <item m="1" x="18"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="9" showAll="0">
+      <items count="14">
+        <item x="8"/>
+        <item x="6"/>
+        <item m="1" x="10"/>
+        <item x="5"/>
+        <item m="1" x="12"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
+        <item x="7"/>
+        <item m="1" x="11"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0">
+      <items count="15">
+        <item x="3"/>
+        <item m="1" x="7"/>
+        <item m="1" x="10"/>
+        <item m="1" x="8"/>
+        <item m="1" x="12"/>
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
+        <item m="1" x="13"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item m="1" x="11"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" numFmtId="9" showAll="0">
+      <items count="10">
+        <item x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item m="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="9" showAll="0">
+      <items count="75">
+        <item x="12"/>
+        <item m="1" x="37"/>
+        <item m="1" x="62"/>
+        <item x="7"/>
+        <item m="1" x="17"/>
+        <item m="1" x="45"/>
+        <item m="1" x="32"/>
+        <item m="1" x="57"/>
+        <item m="1" x="33"/>
+        <item m="1" x="38"/>
+        <item m="1" x="60"/>
+        <item m="1" x="49"/>
+        <item m="1" x="39"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item m="1" x="50"/>
+        <item m="1" x="43"/>
+        <item x="6"/>
+        <item m="1" x="66"/>
+        <item m="1" x="59"/>
+        <item m="1" x="54"/>
+        <item m="1" x="19"/>
+        <item x="4"/>
+        <item m="1" x="55"/>
+        <item m="1" x="71"/>
+        <item m="1" x="21"/>
+        <item x="9"/>
+        <item m="1" x="61"/>
+        <item m="1" x="72"/>
+        <item m="1" x="63"/>
+        <item x="11"/>
+        <item m="1" x="26"/>
+        <item m="1" x="64"/>
+        <item m="1" x="65"/>
+        <item m="1" x="34"/>
+        <item m="1" x="67"/>
+        <item m="1" x="70"/>
+        <item m="1" x="29"/>
+        <item x="5"/>
+        <item m="1" x="73"/>
+        <item m="1" x="27"/>
+        <item m="1" x="51"/>
+        <item m="1" x="22"/>
+        <item m="1" x="68"/>
+        <item m="1" x="23"/>
+        <item m="1" x="58"/>
+        <item m="1" x="15"/>
+        <item m="1" x="28"/>
+        <item m="1" x="30"/>
+        <item m="1" x="18"/>
+        <item m="1" x="24"/>
+        <item m="1" x="25"/>
+        <item m="1" x="16"/>
+        <item m="1" x="31"/>
+        <item x="2"/>
+        <item m="1" x="20"/>
+        <item m="1" x="36"/>
+        <item m="1" x="69"/>
+        <item m="1" x="40"/>
+        <item m="1" x="41"/>
+        <item x="13"/>
+        <item m="1" x="46"/>
+        <item m="1" x="42"/>
+        <item m="1" x="44"/>
+        <item m="1" x="47"/>
+        <item m="1" x="35"/>
+        <item m="1" x="52"/>
+        <item m="1" x="48"/>
+        <item m="1" x="53"/>
+        <item x="8"/>
+        <item m="1" x="56"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item m="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Promedio de % AVANCE CONTROL ESTRUCTURA" fld="18" subtotal="average" baseField="0" baseItem="0" numFmtId="9"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34D146F9-9407-4386-868F-ACBADE03CD21}" name="TablaDinámica6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A26:A27" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="26">
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="333">
+        <item x="298"/>
+        <item x="200"/>
+        <item x="225"/>
+        <item x="120"/>
+        <item x="124"/>
+        <item x="78"/>
+        <item x="179"/>
+        <item x="253"/>
+        <item x="240"/>
+        <item x="105"/>
+        <item x="213"/>
+        <item x="299"/>
+        <item x="114"/>
+        <item x="131"/>
+        <item x="130"/>
+        <item x="37"/>
+        <item x="308"/>
+        <item x="192"/>
+        <item x="208"/>
+        <item x="184"/>
+        <item x="127"/>
+        <item x="87"/>
+        <item x="235"/>
+        <item x="62"/>
+        <item x="255"/>
+        <item x="279"/>
+        <item x="324"/>
+        <item x="311"/>
+        <item x="148"/>
+        <item x="277"/>
+        <item x="27"/>
+        <item x="52"/>
+        <item x="28"/>
+        <item x="221"/>
+        <item x="320"/>
+        <item x="220"/>
+        <item x="160"/>
+        <item x="226"/>
+        <item x="83"/>
+        <item x="29"/>
+        <item x="119"/>
+        <item x="149"/>
+        <item x="259"/>
+        <item x="180"/>
+        <item x="241"/>
+        <item x="326"/>
+        <item x="296"/>
+        <item x="159"/>
+        <item x="155"/>
+        <item x="247"/>
+        <item x="305"/>
+        <item x="11"/>
+        <item x="199"/>
+        <item x="211"/>
+        <item x="307"/>
+        <item x="145"/>
+        <item x="248"/>
+        <item x="193"/>
+        <item x="218"/>
+        <item x="175"/>
+        <item x="302"/>
+        <item x="294"/>
+        <item x="110"/>
+        <item x="270"/>
+        <item x="113"/>
+        <item x="132"/>
+        <item x="244"/>
+        <item x="103"/>
+        <item x="314"/>
+        <item x="161"/>
+        <item x="123"/>
+        <item x="47"/>
+        <item x="309"/>
+        <item x="166"/>
+        <item x="157"/>
+        <item x="176"/>
+        <item x="16"/>
+        <item x="168"/>
+        <item x="4"/>
+        <item x="223"/>
+        <item x="230"/>
+        <item x="162"/>
+        <item x="169"/>
+        <item x="242"/>
+        <item x="322"/>
+        <item x="48"/>
+        <item x="268"/>
+        <item x="12"/>
+        <item x="30"/>
+        <item x="84"/>
+        <item x="263"/>
+        <item x="202"/>
+        <item x="188"/>
+        <item x="187"/>
+        <item x="0"/>
+        <item x="250"/>
+        <item x="40"/>
+        <item x="7"/>
+        <item x="73"/>
+        <item x="138"/>
+        <item x="266"/>
+        <item x="198"/>
+        <item x="269"/>
+        <item x="260"/>
+        <item x="69"/>
+        <item x="21"/>
+        <item x="278"/>
+        <item x="22"/>
+        <item x="151"/>
+        <item x="68"/>
+        <item x="31"/>
+        <item x="56"/>
+        <item x="76"/>
+        <item x="98"/>
+        <item x="267"/>
+        <item x="256"/>
+        <item x="206"/>
+        <item x="182"/>
+        <item x="164"/>
+        <item x="216"/>
+        <item x="72"/>
+        <item x="85"/>
+        <item x="276"/>
+        <item x="219"/>
+        <item x="228"/>
+        <item x="207"/>
+        <item x="170"/>
+        <item x="190"/>
+        <item x="174"/>
+        <item x="8"/>
+        <item x="254"/>
+        <item x="32"/>
+        <item x="183"/>
+        <item x="88"/>
+        <item x="295"/>
+        <item x="285"/>
+        <item x="61"/>
+        <item x="214"/>
+        <item x="258"/>
+        <item x="100"/>
+        <item x="64"/>
+        <item x="9"/>
+        <item x="232"/>
+        <item x="153"/>
+        <item x="224"/>
+        <item x="23"/>
+        <item x="135"/>
+        <item x="205"/>
+        <item x="287"/>
+        <item x="79"/>
+        <item x="77"/>
+        <item x="24"/>
+        <item x="140"/>
+        <item x="17"/>
+        <item x="191"/>
+        <item x="172"/>
+        <item x="271"/>
+        <item x="290"/>
+        <item x="25"/>
+        <item x="121"/>
+        <item x="243"/>
+        <item x="330"/>
+        <item x="95"/>
+        <item x="3"/>
+        <item x="231"/>
+        <item x="203"/>
+        <item x="237"/>
+        <item x="18"/>
+        <item x="156"/>
+        <item x="264"/>
+        <item x="134"/>
+        <item x="185"/>
+        <item x="239"/>
+        <item x="212"/>
+        <item x="284"/>
+        <item x="126"/>
+        <item x="133"/>
+        <item x="251"/>
+        <item x="319"/>
+        <item x="80"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="273"/>
+        <item x="33"/>
+        <item x="312"/>
+        <item x="89"/>
+        <item x="34"/>
+        <item x="234"/>
+        <item x="197"/>
+        <item x="281"/>
+        <item x="195"/>
+        <item x="167"/>
+        <item x="59"/>
+        <item x="178"/>
+        <item x="1"/>
+        <item x="280"/>
+        <item x="70"/>
+        <item x="2"/>
+        <item x="137"/>
+        <item x="303"/>
+        <item x="115"/>
+        <item x="189"/>
+        <item x="141"/>
+        <item x="233"/>
+        <item x="35"/>
+        <item x="289"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="13"/>
+        <item x="257"/>
+        <item x="101"/>
+        <item x="104"/>
+        <item x="297"/>
+        <item x="19"/>
+        <item x="246"/>
+        <item x="10"/>
+        <item x="310"/>
+        <item x="63"/>
+        <item x="286"/>
+        <item x="5"/>
+        <item x="112"/>
+        <item x="60"/>
+        <item x="204"/>
+        <item x="53"/>
+        <item x="44"/>
+        <item x="38"/>
+        <item x="65"/>
+        <item x="14"/>
+        <item x="54"/>
+        <item x="41"/>
+        <item x="275"/>
+        <item x="82"/>
+        <item x="15"/>
+        <item x="45"/>
+        <item x="315"/>
+        <item x="42"/>
+        <item x="154"/>
+        <item x="283"/>
+        <item x="316"/>
+        <item x="165"/>
+        <item x="46"/>
+        <item x="6"/>
+        <item x="71"/>
+        <item x="51"/>
+        <item x="43"/>
+        <item x="158"/>
+        <item x="238"/>
+        <item x="177"/>
+        <item x="261"/>
+        <item x="163"/>
+        <item x="143"/>
+        <item x="272"/>
+        <item x="236"/>
+        <item x="215"/>
+        <item x="274"/>
+        <item x="117"/>
+        <item x="150"/>
+        <item x="111"/>
+        <item x="142"/>
+        <item x="74"/>
+        <item x="173"/>
+        <item x="90"/>
+        <item x="108"/>
+        <item x="196"/>
+        <item x="313"/>
+        <item x="147"/>
+        <item x="291"/>
+        <item x="146"/>
+        <item x="93"/>
+        <item x="201"/>
+        <item x="118"/>
+        <item x="329"/>
+        <item x="81"/>
+        <item x="152"/>
+        <item x="210"/>
+        <item x="304"/>
+        <item x="323"/>
+        <item x="129"/>
+        <item x="57"/>
+        <item x="171"/>
+        <item x="102"/>
+        <item x="122"/>
+        <item x="222"/>
+        <item x="106"/>
+        <item x="262"/>
+        <item x="116"/>
+        <item x="252"/>
+        <item x="321"/>
+        <item x="86"/>
+        <item x="288"/>
+        <item x="136"/>
+        <item x="20"/>
+        <item x="58"/>
+        <item x="301"/>
+        <item x="249"/>
+        <item x="186"/>
+        <item x="317"/>
+        <item x="328"/>
+        <item x="293"/>
+        <item x="245"/>
+        <item x="39"/>
+        <item x="306"/>
+        <item x="125"/>
+        <item x="36"/>
+        <item x="181"/>
+        <item x="128"/>
+        <item x="75"/>
+        <item x="194"/>
+        <item x="99"/>
+        <item x="107"/>
+        <item x="227"/>
+        <item x="331"/>
+        <item x="282"/>
+        <item x="109"/>
+        <item x="97"/>
+        <item x="144"/>
+        <item x="96"/>
+        <item x="318"/>
+        <item x="139"/>
+        <item x="300"/>
+        <item x="209"/>
+        <item x="26"/>
+        <item x="217"/>
+        <item x="325"/>
+        <item x="92"/>
+        <item x="229"/>
+        <item x="55"/>
+        <item x="292"/>
+        <item x="91"/>
+        <item x="327"/>
+        <item x="265"/>
+        <item x="94"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="20">
+        <item m="1" x="10"/>
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="13"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="14"/>
+        <item x="4"/>
+        <item m="1" x="15"/>
+        <item x="5"/>
+        <item m="1" x="16"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item m="1" x="17"/>
+        <item m="1" x="18"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="9" showAll="0">
+      <items count="14">
+        <item x="8"/>
+        <item x="6"/>
+        <item m="1" x="10"/>
+        <item x="5"/>
+        <item m="1" x="12"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
+        <item x="7"/>
+        <item m="1" x="11"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" numFmtId="9" showAll="0">
+      <items count="15">
+        <item x="3"/>
+        <item m="1" x="7"/>
+        <item m="1" x="10"/>
+        <item m="1" x="8"/>
+        <item m="1" x="12"/>
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
+        <item m="1" x="13"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item m="1" x="11"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0">
+      <items count="10">
+        <item x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item m="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="9" showAll="0">
+      <items count="75">
+        <item x="12"/>
+        <item m="1" x="37"/>
+        <item m="1" x="62"/>
+        <item x="7"/>
+        <item m="1" x="17"/>
+        <item m="1" x="45"/>
+        <item m="1" x="32"/>
+        <item m="1" x="57"/>
+        <item m="1" x="33"/>
+        <item m="1" x="38"/>
+        <item m="1" x="60"/>
+        <item m="1" x="49"/>
+        <item m="1" x="39"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item m="1" x="50"/>
+        <item m="1" x="43"/>
+        <item x="6"/>
+        <item m="1" x="66"/>
+        <item m="1" x="59"/>
+        <item m="1" x="54"/>
+        <item m="1" x="19"/>
+        <item x="4"/>
+        <item m="1" x="55"/>
+        <item m="1" x="71"/>
+        <item m="1" x="21"/>
+        <item x="9"/>
+        <item m="1" x="61"/>
+        <item m="1" x="72"/>
+        <item m="1" x="63"/>
+        <item x="11"/>
+        <item m="1" x="26"/>
+        <item m="1" x="64"/>
+        <item m="1" x="65"/>
+        <item m="1" x="34"/>
+        <item m="1" x="67"/>
+        <item m="1" x="70"/>
+        <item m="1" x="29"/>
+        <item x="5"/>
+        <item m="1" x="73"/>
+        <item m="1" x="27"/>
+        <item m="1" x="51"/>
+        <item m="1" x="22"/>
+        <item m="1" x="68"/>
+        <item m="1" x="23"/>
+        <item m="1" x="58"/>
+        <item m="1" x="15"/>
+        <item m="1" x="28"/>
+        <item m="1" x="30"/>
+        <item m="1" x="18"/>
+        <item m="1" x="24"/>
+        <item m="1" x="25"/>
+        <item m="1" x="16"/>
+        <item m="1" x="31"/>
+        <item x="2"/>
+        <item m="1" x="20"/>
+        <item m="1" x="36"/>
+        <item m="1" x="69"/>
+        <item m="1" x="40"/>
+        <item m="1" x="41"/>
+        <item x="13"/>
+        <item m="1" x="46"/>
+        <item m="1" x="42"/>
+        <item m="1" x="44"/>
+        <item m="1" x="47"/>
+        <item m="1" x="35"/>
+        <item m="1" x="52"/>
+        <item m="1" x="48"/>
+        <item m="1" x="53"/>
+        <item x="8"/>
+        <item m="1" x="56"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item m="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Promedio de % AVANCE TOPOLOGIA" fld="14" subtotal="average" baseField="0" baseItem="0" numFmtId="9"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F98C296F-25D5-4A48-9252-05CC2E48F289}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A21:A22" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="26">
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="333">
+        <item x="298"/>
+        <item x="200"/>
+        <item x="225"/>
+        <item x="120"/>
+        <item x="124"/>
+        <item x="78"/>
+        <item x="179"/>
+        <item x="253"/>
+        <item x="240"/>
+        <item x="105"/>
+        <item x="213"/>
+        <item x="299"/>
+        <item x="114"/>
+        <item x="131"/>
+        <item x="130"/>
+        <item x="37"/>
+        <item x="308"/>
+        <item x="192"/>
+        <item x="208"/>
+        <item x="184"/>
+        <item x="127"/>
+        <item x="87"/>
+        <item x="235"/>
+        <item x="62"/>
+        <item x="255"/>
+        <item x="279"/>
+        <item x="324"/>
+        <item x="311"/>
+        <item x="148"/>
+        <item x="277"/>
+        <item x="27"/>
+        <item x="52"/>
+        <item x="28"/>
+        <item x="221"/>
+        <item x="320"/>
+        <item x="220"/>
+        <item x="160"/>
+        <item x="226"/>
+        <item x="83"/>
+        <item x="29"/>
+        <item x="119"/>
+        <item x="149"/>
+        <item x="259"/>
+        <item x="180"/>
+        <item x="241"/>
+        <item x="326"/>
+        <item x="296"/>
+        <item x="159"/>
+        <item x="155"/>
+        <item x="247"/>
+        <item x="305"/>
+        <item x="11"/>
+        <item x="199"/>
+        <item x="211"/>
+        <item x="307"/>
+        <item x="145"/>
+        <item x="248"/>
+        <item x="193"/>
+        <item x="218"/>
+        <item x="175"/>
+        <item x="302"/>
+        <item x="294"/>
+        <item x="110"/>
+        <item x="270"/>
+        <item x="113"/>
+        <item x="132"/>
+        <item x="244"/>
+        <item x="103"/>
+        <item x="314"/>
+        <item x="161"/>
+        <item x="123"/>
+        <item x="47"/>
+        <item x="309"/>
+        <item x="166"/>
+        <item x="157"/>
+        <item x="176"/>
+        <item x="16"/>
+        <item x="168"/>
+        <item x="4"/>
+        <item x="223"/>
+        <item x="230"/>
+        <item x="162"/>
+        <item x="169"/>
+        <item x="242"/>
+        <item x="322"/>
+        <item x="48"/>
+        <item x="268"/>
+        <item x="12"/>
+        <item x="30"/>
+        <item x="84"/>
+        <item x="263"/>
+        <item x="202"/>
+        <item x="188"/>
+        <item x="187"/>
+        <item x="0"/>
+        <item x="250"/>
+        <item x="40"/>
+        <item x="7"/>
+        <item x="73"/>
+        <item x="138"/>
+        <item x="266"/>
+        <item x="198"/>
+        <item x="269"/>
+        <item x="260"/>
+        <item x="69"/>
+        <item x="21"/>
+        <item x="278"/>
+        <item x="22"/>
+        <item x="151"/>
+        <item x="68"/>
+        <item x="31"/>
+        <item x="56"/>
+        <item x="76"/>
+        <item x="98"/>
+        <item x="267"/>
+        <item x="256"/>
+        <item x="206"/>
+        <item x="182"/>
+        <item x="164"/>
+        <item x="216"/>
+        <item x="72"/>
+        <item x="85"/>
+        <item x="276"/>
+        <item x="219"/>
+        <item x="228"/>
+        <item x="207"/>
+        <item x="170"/>
+        <item x="190"/>
+        <item x="174"/>
+        <item x="8"/>
+        <item x="254"/>
+        <item x="32"/>
+        <item x="183"/>
+        <item x="88"/>
+        <item x="295"/>
+        <item x="285"/>
+        <item x="61"/>
+        <item x="214"/>
+        <item x="258"/>
+        <item x="100"/>
+        <item x="64"/>
+        <item x="9"/>
+        <item x="232"/>
+        <item x="153"/>
+        <item x="224"/>
+        <item x="23"/>
+        <item x="135"/>
+        <item x="205"/>
+        <item x="287"/>
+        <item x="79"/>
+        <item x="77"/>
+        <item x="24"/>
+        <item x="140"/>
+        <item x="17"/>
+        <item x="191"/>
+        <item x="172"/>
+        <item x="271"/>
+        <item x="290"/>
+        <item x="25"/>
+        <item x="121"/>
+        <item x="243"/>
+        <item x="330"/>
+        <item x="95"/>
+        <item x="3"/>
+        <item x="231"/>
+        <item x="203"/>
+        <item x="237"/>
+        <item x="18"/>
+        <item x="156"/>
+        <item x="264"/>
+        <item x="134"/>
+        <item x="185"/>
+        <item x="239"/>
+        <item x="212"/>
+        <item x="284"/>
+        <item x="126"/>
+        <item x="133"/>
+        <item x="251"/>
+        <item x="319"/>
+        <item x="80"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="273"/>
+        <item x="33"/>
+        <item x="312"/>
+        <item x="89"/>
+        <item x="34"/>
+        <item x="234"/>
+        <item x="197"/>
+        <item x="281"/>
+        <item x="195"/>
+        <item x="167"/>
+        <item x="59"/>
+        <item x="178"/>
+        <item x="1"/>
+        <item x="280"/>
+        <item x="70"/>
+        <item x="2"/>
+        <item x="137"/>
+        <item x="303"/>
+        <item x="115"/>
+        <item x="189"/>
+        <item x="141"/>
+        <item x="233"/>
+        <item x="35"/>
+        <item x="289"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="13"/>
+        <item x="257"/>
+        <item x="101"/>
+        <item x="104"/>
+        <item x="297"/>
+        <item x="19"/>
+        <item x="246"/>
+        <item x="10"/>
+        <item x="310"/>
+        <item x="63"/>
+        <item x="286"/>
+        <item x="5"/>
+        <item x="112"/>
+        <item x="60"/>
+        <item x="204"/>
+        <item x="53"/>
+        <item x="44"/>
+        <item x="38"/>
+        <item x="65"/>
+        <item x="14"/>
+        <item x="54"/>
+        <item x="41"/>
+        <item x="275"/>
+        <item x="82"/>
+        <item x="15"/>
+        <item x="45"/>
+        <item x="315"/>
+        <item x="42"/>
+        <item x="154"/>
+        <item x="283"/>
+        <item x="316"/>
+        <item x="165"/>
+        <item x="46"/>
+        <item x="6"/>
+        <item x="71"/>
+        <item x="51"/>
+        <item x="43"/>
+        <item x="158"/>
+        <item x="238"/>
+        <item x="177"/>
+        <item x="261"/>
+        <item x="163"/>
+        <item x="143"/>
+        <item x="272"/>
+        <item x="236"/>
+        <item x="215"/>
+        <item x="274"/>
+        <item x="117"/>
+        <item x="150"/>
+        <item x="111"/>
+        <item x="142"/>
+        <item x="74"/>
+        <item x="173"/>
+        <item x="90"/>
+        <item x="108"/>
+        <item x="196"/>
+        <item x="313"/>
+        <item x="147"/>
+        <item x="291"/>
+        <item x="146"/>
+        <item x="93"/>
+        <item x="201"/>
+        <item x="118"/>
+        <item x="329"/>
+        <item x="81"/>
+        <item x="152"/>
+        <item x="210"/>
+        <item x="304"/>
+        <item x="323"/>
+        <item x="129"/>
+        <item x="57"/>
+        <item x="171"/>
+        <item x="102"/>
+        <item x="122"/>
+        <item x="222"/>
+        <item x="106"/>
+        <item x="262"/>
+        <item x="116"/>
+        <item x="252"/>
+        <item x="321"/>
+        <item x="86"/>
+        <item x="288"/>
+        <item x="136"/>
+        <item x="20"/>
+        <item x="58"/>
+        <item x="301"/>
+        <item x="249"/>
+        <item x="186"/>
+        <item x="317"/>
+        <item x="328"/>
+        <item x="293"/>
+        <item x="245"/>
+        <item x="39"/>
+        <item x="306"/>
+        <item x="125"/>
+        <item x="36"/>
+        <item x="181"/>
+        <item x="128"/>
+        <item x="75"/>
+        <item x="194"/>
+        <item x="99"/>
+        <item x="107"/>
+        <item x="227"/>
+        <item x="331"/>
+        <item x="282"/>
+        <item x="109"/>
+        <item x="97"/>
+        <item x="144"/>
+        <item x="96"/>
+        <item x="318"/>
+        <item x="139"/>
+        <item x="300"/>
+        <item x="209"/>
+        <item x="26"/>
+        <item x="217"/>
+        <item x="325"/>
+        <item x="92"/>
+        <item x="229"/>
+        <item x="55"/>
+        <item x="292"/>
+        <item x="91"/>
+        <item x="327"/>
+        <item x="265"/>
+        <item x="94"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="20">
+        <item m="1" x="10"/>
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="13"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="14"/>
+        <item x="4"/>
+        <item m="1" x="15"/>
+        <item x="5"/>
+        <item m="1" x="16"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item m="1" x="17"/>
+        <item m="1" x="18"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="9" showAll="0">
+      <items count="14">
+        <item x="8"/>
+        <item x="6"/>
+        <item m="1" x="10"/>
+        <item x="5"/>
+        <item m="1" x="12"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
+        <item x="7"/>
+        <item m="1" x="11"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0">
+      <items count="15">
+        <item x="3"/>
+        <item m="1" x="7"/>
+        <item m="1" x="10"/>
+        <item m="1" x="8"/>
+        <item m="1" x="12"/>
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
+        <item m="1" x="13"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item m="1" x="11"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0">
+      <items count="10">
+        <item x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item m="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="9" showAll="0">
+      <items count="75">
+        <item x="12"/>
+        <item m="1" x="37"/>
+        <item m="1" x="62"/>
+        <item x="7"/>
+        <item m="1" x="17"/>
+        <item m="1" x="45"/>
+        <item m="1" x="32"/>
+        <item m="1" x="57"/>
+        <item m="1" x="33"/>
+        <item m="1" x="38"/>
+        <item m="1" x="60"/>
+        <item m="1" x="49"/>
+        <item m="1" x="39"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item m="1" x="50"/>
+        <item m="1" x="43"/>
+        <item x="6"/>
+        <item m="1" x="66"/>
+        <item m="1" x="59"/>
+        <item m="1" x="54"/>
+        <item m="1" x="19"/>
+        <item x="4"/>
+        <item m="1" x="55"/>
+        <item m="1" x="71"/>
+        <item m="1" x="21"/>
+        <item x="9"/>
+        <item m="1" x="61"/>
+        <item m="1" x="72"/>
+        <item m="1" x="63"/>
+        <item x="11"/>
+        <item m="1" x="26"/>
+        <item m="1" x="64"/>
+        <item m="1" x="65"/>
+        <item m="1" x="34"/>
+        <item m="1" x="67"/>
+        <item m="1" x="70"/>
+        <item m="1" x="29"/>
+        <item x="5"/>
+        <item m="1" x="73"/>
+        <item m="1" x="27"/>
+        <item m="1" x="51"/>
+        <item m="1" x="22"/>
+        <item m="1" x="68"/>
+        <item m="1" x="23"/>
+        <item m="1" x="58"/>
+        <item m="1" x="15"/>
+        <item m="1" x="28"/>
+        <item m="1" x="30"/>
+        <item m="1" x="18"/>
+        <item m="1" x="24"/>
+        <item m="1" x="25"/>
+        <item m="1" x="16"/>
+        <item m="1" x="31"/>
+        <item x="2"/>
+        <item m="1" x="20"/>
+        <item m="1" x="36"/>
+        <item m="1" x="69"/>
+        <item m="1" x="40"/>
+        <item m="1" x="41"/>
+        <item x="13"/>
+        <item m="1" x="46"/>
+        <item m="1" x="42"/>
+        <item m="1" x="44"/>
+        <item m="1" x="47"/>
+        <item m="1" x="35"/>
+        <item m="1" x="52"/>
+        <item m="1" x="48"/>
+        <item m="1" x="53"/>
+        <item x="8"/>
+        <item m="1" x="56"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item m="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Promedio de % AVANCE DIGITALIZACION" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="9"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CA555505-9087-4231-86A0-DE53A16E98A8}" name="TablaDinámica8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A32:A33" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="26">
     <pivotField showAll="0">
       <items count="10">
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
         <item x="0"/>
-        <item h="1" x="8"/>
+        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -18677,21 +20580,21 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F60450B-3795-46EF-8B0B-D0C1289E5B1F}" name="TablaDinámica3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="2">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F60450B-3795-46EF-8B0B-D0C1289E5B1F}" name="TablaDinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A16:A17" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="26">
     <pivotField showAll="0">
       <items count="10">
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
         <item x="0"/>
-        <item h="1" x="8"/>
+        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -19292,21 +21195,686 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{210FC621-E235-4471-B31F-BE7F4A3CE80C}" name="TablaDinámica2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="31">
-  <location ref="A1:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9EFB6520-6693-4EB2-A84E-85AF318F8007}" name="TablaDinámica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="20">
+  <location ref="A37:B47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="26">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="333">
+        <item x="298"/>
+        <item x="200"/>
+        <item x="225"/>
+        <item x="120"/>
+        <item x="124"/>
+        <item x="78"/>
+        <item x="179"/>
+        <item x="253"/>
+        <item x="240"/>
+        <item x="105"/>
+        <item x="213"/>
+        <item x="299"/>
+        <item x="114"/>
+        <item x="131"/>
+        <item x="130"/>
+        <item x="37"/>
+        <item x="308"/>
+        <item x="192"/>
+        <item x="208"/>
+        <item x="184"/>
+        <item x="127"/>
+        <item x="87"/>
+        <item x="235"/>
+        <item x="62"/>
+        <item x="255"/>
+        <item x="279"/>
+        <item x="324"/>
+        <item x="311"/>
+        <item x="148"/>
+        <item x="277"/>
+        <item x="27"/>
+        <item x="52"/>
+        <item x="28"/>
+        <item x="221"/>
+        <item x="320"/>
+        <item x="220"/>
+        <item x="160"/>
+        <item x="226"/>
+        <item x="83"/>
+        <item x="29"/>
+        <item x="119"/>
+        <item x="149"/>
+        <item x="259"/>
+        <item x="180"/>
+        <item x="241"/>
+        <item x="326"/>
+        <item x="296"/>
+        <item x="159"/>
+        <item x="155"/>
+        <item x="247"/>
+        <item x="305"/>
+        <item x="11"/>
+        <item x="199"/>
+        <item x="211"/>
+        <item x="307"/>
+        <item x="145"/>
+        <item x="248"/>
+        <item x="193"/>
+        <item x="218"/>
+        <item x="175"/>
+        <item x="302"/>
+        <item x="294"/>
+        <item x="110"/>
+        <item x="270"/>
+        <item x="113"/>
+        <item x="132"/>
+        <item x="244"/>
+        <item x="103"/>
+        <item x="314"/>
+        <item x="161"/>
+        <item x="123"/>
+        <item x="47"/>
+        <item x="309"/>
+        <item x="166"/>
+        <item x="157"/>
+        <item x="176"/>
+        <item x="16"/>
+        <item x="168"/>
+        <item x="4"/>
+        <item x="223"/>
+        <item x="230"/>
+        <item x="162"/>
+        <item x="169"/>
+        <item x="242"/>
+        <item x="322"/>
+        <item x="48"/>
+        <item x="268"/>
+        <item x="12"/>
+        <item x="30"/>
+        <item x="84"/>
+        <item x="263"/>
+        <item x="202"/>
+        <item x="188"/>
+        <item x="187"/>
+        <item x="0"/>
+        <item x="250"/>
+        <item x="40"/>
+        <item x="7"/>
+        <item x="73"/>
+        <item x="138"/>
+        <item x="266"/>
+        <item x="198"/>
+        <item x="269"/>
+        <item x="260"/>
+        <item x="69"/>
+        <item x="21"/>
+        <item x="278"/>
+        <item x="22"/>
+        <item x="151"/>
+        <item x="68"/>
+        <item x="31"/>
+        <item x="56"/>
+        <item x="76"/>
+        <item x="98"/>
+        <item x="267"/>
+        <item x="256"/>
+        <item x="206"/>
+        <item x="182"/>
+        <item x="164"/>
+        <item x="216"/>
+        <item x="72"/>
+        <item x="85"/>
+        <item x="276"/>
+        <item x="219"/>
+        <item x="228"/>
+        <item x="207"/>
+        <item x="170"/>
+        <item x="190"/>
+        <item x="174"/>
+        <item x="8"/>
+        <item x="254"/>
+        <item x="32"/>
+        <item x="183"/>
+        <item x="88"/>
+        <item x="295"/>
+        <item x="285"/>
+        <item x="61"/>
+        <item x="214"/>
+        <item x="258"/>
+        <item x="100"/>
+        <item x="64"/>
+        <item x="9"/>
+        <item x="232"/>
+        <item x="153"/>
+        <item x="224"/>
+        <item x="23"/>
+        <item x="135"/>
+        <item x="205"/>
+        <item x="287"/>
+        <item x="79"/>
+        <item x="77"/>
+        <item x="24"/>
+        <item x="140"/>
+        <item x="17"/>
+        <item x="191"/>
+        <item x="172"/>
+        <item x="271"/>
+        <item x="290"/>
+        <item x="25"/>
+        <item x="121"/>
+        <item x="243"/>
+        <item x="330"/>
+        <item x="95"/>
+        <item x="3"/>
+        <item x="231"/>
+        <item x="203"/>
+        <item x="237"/>
+        <item x="18"/>
+        <item x="156"/>
+        <item x="264"/>
+        <item x="134"/>
+        <item x="185"/>
+        <item x="239"/>
+        <item x="212"/>
+        <item x="284"/>
+        <item x="126"/>
+        <item x="133"/>
+        <item x="251"/>
+        <item x="319"/>
+        <item x="80"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="273"/>
+        <item x="33"/>
+        <item x="312"/>
+        <item x="89"/>
+        <item x="34"/>
+        <item x="234"/>
+        <item x="197"/>
+        <item x="281"/>
+        <item x="195"/>
+        <item x="167"/>
+        <item x="59"/>
+        <item x="178"/>
+        <item x="1"/>
+        <item x="280"/>
+        <item x="70"/>
+        <item x="2"/>
+        <item x="137"/>
+        <item x="303"/>
+        <item x="115"/>
+        <item x="189"/>
+        <item x="141"/>
+        <item x="233"/>
+        <item x="35"/>
+        <item x="289"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="13"/>
+        <item x="257"/>
+        <item x="101"/>
+        <item x="104"/>
+        <item x="297"/>
+        <item x="19"/>
+        <item x="246"/>
+        <item x="10"/>
+        <item x="310"/>
+        <item x="63"/>
+        <item x="286"/>
+        <item x="5"/>
+        <item x="112"/>
+        <item x="60"/>
+        <item x="204"/>
+        <item x="53"/>
+        <item x="44"/>
+        <item x="38"/>
+        <item x="65"/>
+        <item x="14"/>
+        <item x="54"/>
+        <item x="41"/>
+        <item x="275"/>
+        <item x="82"/>
+        <item x="15"/>
+        <item x="45"/>
+        <item x="315"/>
+        <item x="42"/>
+        <item x="154"/>
+        <item x="283"/>
+        <item x="316"/>
+        <item x="165"/>
+        <item x="46"/>
+        <item x="6"/>
+        <item x="71"/>
+        <item x="51"/>
+        <item x="43"/>
+        <item x="158"/>
+        <item x="238"/>
+        <item x="177"/>
+        <item x="261"/>
+        <item x="163"/>
+        <item x="143"/>
+        <item x="272"/>
+        <item x="236"/>
+        <item x="215"/>
+        <item x="274"/>
+        <item x="117"/>
+        <item x="150"/>
+        <item x="111"/>
+        <item x="142"/>
+        <item x="74"/>
+        <item x="173"/>
+        <item x="90"/>
+        <item x="108"/>
+        <item x="196"/>
+        <item x="313"/>
+        <item x="147"/>
+        <item x="291"/>
+        <item x="146"/>
+        <item x="93"/>
+        <item x="201"/>
+        <item x="118"/>
+        <item x="329"/>
+        <item x="81"/>
+        <item x="152"/>
+        <item x="210"/>
+        <item x="304"/>
+        <item x="323"/>
+        <item x="129"/>
+        <item x="57"/>
+        <item x="171"/>
+        <item x="102"/>
+        <item x="122"/>
+        <item x="222"/>
+        <item x="106"/>
+        <item x="262"/>
+        <item x="116"/>
+        <item x="252"/>
+        <item x="321"/>
+        <item x="86"/>
+        <item x="288"/>
+        <item x="136"/>
+        <item x="20"/>
+        <item x="58"/>
+        <item x="301"/>
+        <item x="249"/>
+        <item x="186"/>
+        <item x="317"/>
+        <item x="328"/>
+        <item x="293"/>
+        <item x="245"/>
+        <item x="39"/>
+        <item x="306"/>
+        <item x="125"/>
+        <item x="36"/>
+        <item x="181"/>
+        <item x="128"/>
+        <item x="75"/>
+        <item x="194"/>
+        <item x="99"/>
+        <item x="107"/>
+        <item x="227"/>
+        <item x="331"/>
+        <item x="282"/>
+        <item x="109"/>
+        <item x="97"/>
+        <item x="144"/>
+        <item x="96"/>
+        <item x="318"/>
+        <item x="139"/>
+        <item x="300"/>
+        <item x="209"/>
+        <item x="26"/>
+        <item x="217"/>
+        <item x="325"/>
+        <item x="92"/>
+        <item x="229"/>
+        <item x="55"/>
+        <item x="292"/>
+        <item x="91"/>
+        <item x="327"/>
+        <item x="265"/>
+        <item x="94"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" sortType="descending">
+      <items count="20">
+        <item m="1" x="10"/>
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item x="1"/>
+        <item m="1" x="12"/>
+        <item m="1" x="13"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="14"/>
+        <item x="4"/>
+        <item m="1" x="15"/>
+        <item x="5"/>
+        <item m="1" x="16"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item m="1" x="17"/>
+        <item m="1" x="18"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="9" showAll="0">
+      <items count="14">
+        <item x="8"/>
+        <item x="6"/>
+        <item m="1" x="10"/>
+        <item x="5"/>
+        <item m="1" x="12"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
+        <item x="7"/>
+        <item m="1" x="11"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0">
+      <items count="15">
+        <item x="3"/>
+        <item m="1" x="7"/>
+        <item m="1" x="10"/>
+        <item m="1" x="8"/>
+        <item m="1" x="12"/>
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
+        <item m="1" x="13"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item m="1" x="11"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0">
+      <items count="10">
+        <item x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item m="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="9" showAll="0">
+      <items count="75">
+        <item x="12"/>
+        <item m="1" x="37"/>
+        <item m="1" x="62"/>
+        <item x="7"/>
+        <item m="1" x="17"/>
+        <item m="1" x="45"/>
+        <item m="1" x="32"/>
+        <item m="1" x="57"/>
+        <item m="1" x="33"/>
+        <item m="1" x="38"/>
+        <item m="1" x="60"/>
+        <item m="1" x="49"/>
+        <item m="1" x="39"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item m="1" x="50"/>
+        <item m="1" x="43"/>
+        <item x="6"/>
+        <item m="1" x="66"/>
+        <item m="1" x="59"/>
+        <item m="1" x="54"/>
+        <item m="1" x="19"/>
+        <item x="4"/>
+        <item m="1" x="55"/>
+        <item m="1" x="71"/>
+        <item m="1" x="21"/>
+        <item x="9"/>
+        <item m="1" x="61"/>
+        <item m="1" x="72"/>
+        <item m="1" x="63"/>
+        <item x="11"/>
+        <item m="1" x="26"/>
+        <item m="1" x="64"/>
+        <item m="1" x="65"/>
+        <item m="1" x="34"/>
+        <item m="1" x="67"/>
+        <item m="1" x="70"/>
+        <item m="1" x="29"/>
+        <item x="5"/>
+        <item m="1" x="73"/>
+        <item m="1" x="27"/>
+        <item m="1" x="51"/>
+        <item m="1" x="22"/>
+        <item m="1" x="68"/>
+        <item m="1" x="23"/>
+        <item m="1" x="58"/>
+        <item m="1" x="15"/>
+        <item m="1" x="28"/>
+        <item m="1" x="30"/>
+        <item m="1" x="18"/>
+        <item m="1" x="24"/>
+        <item m="1" x="25"/>
+        <item m="1" x="16"/>
+        <item m="1" x="31"/>
+        <item x="2"/>
+        <item m="1" x="20"/>
+        <item m="1" x="36"/>
+        <item m="1" x="69"/>
+        <item m="1" x="40"/>
+        <item m="1" x="41"/>
+        <item x="13"/>
+        <item m="1" x="46"/>
+        <item m="1" x="42"/>
+        <item m="1" x="44"/>
+        <item m="1" x="47"/>
+        <item m="1" x="35"/>
+        <item m="1" x="52"/>
+        <item m="1" x="48"/>
+        <item m="1" x="53"/>
+        <item x="8"/>
+        <item m="1" x="56"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item m="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Promedio de %  CONTROL FINAL" fld="24" subtotal="average" baseField="3" baseItem="0" numFmtId="9"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{210FC621-E235-4471-B31F-BE7F4A3CE80C}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="31">
+  <location ref="A1:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="26">
     <pivotField showAll="0">
       <items count="10">
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
         <item x="0"/>
-        <item h="1" x="8"/>
+        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -19878,7 +22446,7 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="11">
     <i>
       <x v="18"/>
     </i>
@@ -19886,10 +22454,10 @@
       <x v="12"/>
     </i>
     <i>
-      <x v="13"/>
+      <x v="11"/>
     </i>
     <i>
-      <x v="11"/>
+      <x v="13"/>
     </i>
     <i>
       <x v="14"/>
@@ -19902,6 +22470,9 @@
     </i>
     <i>
       <x v="17"/>
+    </i>
+    <i>
+      <x v="9"/>
     </i>
     <i>
       <x v="16"/>
@@ -19948,2432 +22519,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B87DE172-7465-47A3-BC77-5379FF373326}" name="TablaDinámica7" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A29:A30" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="26">
-    <pivotField showAll="0">
-      <items count="10">
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item x="0"/>
-        <item h="1" x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="333">
-        <item x="298"/>
-        <item x="200"/>
-        <item x="225"/>
-        <item x="120"/>
-        <item x="124"/>
-        <item x="78"/>
-        <item x="179"/>
-        <item x="253"/>
-        <item x="240"/>
-        <item x="105"/>
-        <item x="213"/>
-        <item x="299"/>
-        <item x="114"/>
-        <item x="131"/>
-        <item x="130"/>
-        <item x="37"/>
-        <item x="308"/>
-        <item x="192"/>
-        <item x="208"/>
-        <item x="184"/>
-        <item x="127"/>
-        <item x="87"/>
-        <item x="235"/>
-        <item x="62"/>
-        <item x="255"/>
-        <item x="279"/>
-        <item x="324"/>
-        <item x="311"/>
-        <item x="148"/>
-        <item x="277"/>
-        <item x="27"/>
-        <item x="52"/>
-        <item x="28"/>
-        <item x="221"/>
-        <item x="320"/>
-        <item x="220"/>
-        <item x="160"/>
-        <item x="226"/>
-        <item x="83"/>
-        <item x="29"/>
-        <item x="119"/>
-        <item x="149"/>
-        <item x="259"/>
-        <item x="180"/>
-        <item x="241"/>
-        <item x="326"/>
-        <item x="296"/>
-        <item x="159"/>
-        <item x="155"/>
-        <item x="247"/>
-        <item x="305"/>
-        <item x="11"/>
-        <item x="199"/>
-        <item x="211"/>
-        <item x="307"/>
-        <item x="145"/>
-        <item x="248"/>
-        <item x="193"/>
-        <item x="218"/>
-        <item x="175"/>
-        <item x="302"/>
-        <item x="294"/>
-        <item x="110"/>
-        <item x="270"/>
-        <item x="113"/>
-        <item x="132"/>
-        <item x="244"/>
-        <item x="103"/>
-        <item x="314"/>
-        <item x="161"/>
-        <item x="123"/>
-        <item x="47"/>
-        <item x="309"/>
-        <item x="166"/>
-        <item x="157"/>
-        <item x="176"/>
-        <item x="16"/>
-        <item x="168"/>
-        <item x="4"/>
-        <item x="223"/>
-        <item x="230"/>
-        <item x="162"/>
-        <item x="169"/>
-        <item x="242"/>
-        <item x="322"/>
-        <item x="48"/>
-        <item x="268"/>
-        <item x="12"/>
-        <item x="30"/>
-        <item x="84"/>
-        <item x="263"/>
-        <item x="202"/>
-        <item x="188"/>
-        <item x="187"/>
-        <item x="0"/>
-        <item x="250"/>
-        <item x="40"/>
-        <item x="7"/>
-        <item x="73"/>
-        <item x="138"/>
-        <item x="266"/>
-        <item x="198"/>
-        <item x="269"/>
-        <item x="260"/>
-        <item x="69"/>
-        <item x="21"/>
-        <item x="278"/>
-        <item x="22"/>
-        <item x="151"/>
-        <item x="68"/>
-        <item x="31"/>
-        <item x="56"/>
-        <item x="76"/>
-        <item x="98"/>
-        <item x="267"/>
-        <item x="256"/>
-        <item x="206"/>
-        <item x="182"/>
-        <item x="164"/>
-        <item x="216"/>
-        <item x="72"/>
-        <item x="85"/>
-        <item x="276"/>
-        <item x="219"/>
-        <item x="228"/>
-        <item x="207"/>
-        <item x="170"/>
-        <item x="190"/>
-        <item x="174"/>
-        <item x="8"/>
-        <item x="254"/>
-        <item x="32"/>
-        <item x="183"/>
-        <item x="88"/>
-        <item x="295"/>
-        <item x="285"/>
-        <item x="61"/>
-        <item x="214"/>
-        <item x="258"/>
-        <item x="100"/>
-        <item x="64"/>
-        <item x="9"/>
-        <item x="232"/>
-        <item x="153"/>
-        <item x="224"/>
-        <item x="23"/>
-        <item x="135"/>
-        <item x="205"/>
-        <item x="287"/>
-        <item x="79"/>
-        <item x="77"/>
-        <item x="24"/>
-        <item x="140"/>
-        <item x="17"/>
-        <item x="191"/>
-        <item x="172"/>
-        <item x="271"/>
-        <item x="290"/>
-        <item x="25"/>
-        <item x="121"/>
-        <item x="243"/>
-        <item x="330"/>
-        <item x="95"/>
-        <item x="3"/>
-        <item x="231"/>
-        <item x="203"/>
-        <item x="237"/>
-        <item x="18"/>
-        <item x="156"/>
-        <item x="264"/>
-        <item x="134"/>
-        <item x="185"/>
-        <item x="239"/>
-        <item x="212"/>
-        <item x="284"/>
-        <item x="126"/>
-        <item x="133"/>
-        <item x="251"/>
-        <item x="319"/>
-        <item x="80"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="273"/>
-        <item x="33"/>
-        <item x="312"/>
-        <item x="89"/>
-        <item x="34"/>
-        <item x="234"/>
-        <item x="197"/>
-        <item x="281"/>
-        <item x="195"/>
-        <item x="167"/>
-        <item x="59"/>
-        <item x="178"/>
-        <item x="1"/>
-        <item x="280"/>
-        <item x="70"/>
-        <item x="2"/>
-        <item x="137"/>
-        <item x="303"/>
-        <item x="115"/>
-        <item x="189"/>
-        <item x="141"/>
-        <item x="233"/>
-        <item x="35"/>
-        <item x="289"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="13"/>
-        <item x="257"/>
-        <item x="101"/>
-        <item x="104"/>
-        <item x="297"/>
-        <item x="19"/>
-        <item x="246"/>
-        <item x="10"/>
-        <item x="310"/>
-        <item x="63"/>
-        <item x="286"/>
-        <item x="5"/>
-        <item x="112"/>
-        <item x="60"/>
-        <item x="204"/>
-        <item x="53"/>
-        <item x="44"/>
-        <item x="38"/>
-        <item x="65"/>
-        <item x="14"/>
-        <item x="54"/>
-        <item x="41"/>
-        <item x="275"/>
-        <item x="82"/>
-        <item x="15"/>
-        <item x="45"/>
-        <item x="315"/>
-        <item x="42"/>
-        <item x="154"/>
-        <item x="283"/>
-        <item x="316"/>
-        <item x="165"/>
-        <item x="46"/>
-        <item x="6"/>
-        <item x="71"/>
-        <item x="51"/>
-        <item x="43"/>
-        <item x="158"/>
-        <item x="238"/>
-        <item x="177"/>
-        <item x="261"/>
-        <item x="163"/>
-        <item x="143"/>
-        <item x="272"/>
-        <item x="236"/>
-        <item x="215"/>
-        <item x="274"/>
-        <item x="117"/>
-        <item x="150"/>
-        <item x="111"/>
-        <item x="142"/>
-        <item x="74"/>
-        <item x="173"/>
-        <item x="90"/>
-        <item x="108"/>
-        <item x="196"/>
-        <item x="313"/>
-        <item x="147"/>
-        <item x="291"/>
-        <item x="146"/>
-        <item x="93"/>
-        <item x="201"/>
-        <item x="118"/>
-        <item x="329"/>
-        <item x="81"/>
-        <item x="152"/>
-        <item x="210"/>
-        <item x="304"/>
-        <item x="323"/>
-        <item x="129"/>
-        <item x="57"/>
-        <item x="171"/>
-        <item x="102"/>
-        <item x="122"/>
-        <item x="222"/>
-        <item x="106"/>
-        <item x="262"/>
-        <item x="116"/>
-        <item x="252"/>
-        <item x="321"/>
-        <item x="86"/>
-        <item x="288"/>
-        <item x="136"/>
-        <item x="20"/>
-        <item x="58"/>
-        <item x="301"/>
-        <item x="249"/>
-        <item x="186"/>
-        <item x="317"/>
-        <item x="328"/>
-        <item x="293"/>
-        <item x="245"/>
-        <item x="39"/>
-        <item x="306"/>
-        <item x="125"/>
-        <item x="36"/>
-        <item x="181"/>
-        <item x="128"/>
-        <item x="75"/>
-        <item x="194"/>
-        <item x="99"/>
-        <item x="107"/>
-        <item x="227"/>
-        <item x="331"/>
-        <item x="282"/>
-        <item x="109"/>
-        <item x="97"/>
-        <item x="144"/>
-        <item x="96"/>
-        <item x="318"/>
-        <item x="139"/>
-        <item x="300"/>
-        <item x="209"/>
-        <item x="26"/>
-        <item x="217"/>
-        <item x="325"/>
-        <item x="92"/>
-        <item x="229"/>
-        <item x="55"/>
-        <item x="292"/>
-        <item x="91"/>
-        <item x="327"/>
-        <item x="265"/>
-        <item x="94"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="20">
-        <item m="1" x="10"/>
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item m="1" x="14"/>
-        <item x="4"/>
-        <item m="1" x="15"/>
-        <item x="5"/>
-        <item m="1" x="16"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="9" showAll="0">
-      <items count="14">
-        <item x="8"/>
-        <item x="6"/>
-        <item m="1" x="10"/>
-        <item x="5"/>
-        <item m="1" x="12"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item x="7"/>
-        <item m="1" x="11"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0">
-      <items count="15">
-        <item x="3"/>
-        <item m="1" x="7"/>
-        <item m="1" x="10"/>
-        <item m="1" x="8"/>
-        <item m="1" x="12"/>
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item x="2"/>
-        <item m="1" x="13"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item m="1" x="11"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField dataField="1" numFmtId="9" showAll="0">
-      <items count="10">
-        <item x="5"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item m="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="9" showAll="0">
-      <items count="75">
-        <item x="12"/>
-        <item m="1" x="37"/>
-        <item m="1" x="62"/>
-        <item x="7"/>
-        <item m="1" x="17"/>
-        <item m="1" x="45"/>
-        <item m="1" x="32"/>
-        <item m="1" x="57"/>
-        <item m="1" x="33"/>
-        <item m="1" x="38"/>
-        <item m="1" x="60"/>
-        <item m="1" x="49"/>
-        <item m="1" x="39"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item m="1" x="50"/>
-        <item m="1" x="43"/>
-        <item x="6"/>
-        <item m="1" x="66"/>
-        <item m="1" x="59"/>
-        <item m="1" x="54"/>
-        <item m="1" x="19"/>
-        <item x="4"/>
-        <item m="1" x="55"/>
-        <item m="1" x="71"/>
-        <item m="1" x="21"/>
-        <item x="9"/>
-        <item m="1" x="61"/>
-        <item m="1" x="72"/>
-        <item m="1" x="63"/>
-        <item x="11"/>
-        <item m="1" x="26"/>
-        <item m="1" x="64"/>
-        <item m="1" x="65"/>
-        <item m="1" x="34"/>
-        <item m="1" x="67"/>
-        <item m="1" x="70"/>
-        <item m="1" x="29"/>
-        <item x="5"/>
-        <item m="1" x="73"/>
-        <item m="1" x="27"/>
-        <item m="1" x="51"/>
-        <item m="1" x="22"/>
-        <item m="1" x="68"/>
-        <item m="1" x="23"/>
-        <item m="1" x="58"/>
-        <item m="1" x="15"/>
-        <item m="1" x="28"/>
-        <item m="1" x="30"/>
-        <item m="1" x="18"/>
-        <item m="1" x="24"/>
-        <item m="1" x="25"/>
-        <item m="1" x="16"/>
-        <item m="1" x="31"/>
-        <item x="2"/>
-        <item m="1" x="20"/>
-        <item m="1" x="36"/>
-        <item m="1" x="69"/>
-        <item m="1" x="40"/>
-        <item m="1" x="41"/>
-        <item x="13"/>
-        <item m="1" x="46"/>
-        <item m="1" x="42"/>
-        <item m="1" x="44"/>
-        <item m="1" x="47"/>
-        <item m="1" x="35"/>
-        <item m="1" x="52"/>
-        <item m="1" x="48"/>
-        <item m="1" x="53"/>
-        <item x="8"/>
-        <item m="1" x="56"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item m="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Promedio de % AVANCE CONTROL ESTRUCTURA" fld="18" subtotal="average" baseField="0" baseItem="0" numFmtId="9"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34D146F9-9407-4386-868F-ACBADE03CD21}" name="TablaDinámica6" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A26:A27" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="26">
-    <pivotField showAll="0">
-      <items count="10">
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item x="0"/>
-        <item h="1" x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="333">
-        <item x="298"/>
-        <item x="200"/>
-        <item x="225"/>
-        <item x="120"/>
-        <item x="124"/>
-        <item x="78"/>
-        <item x="179"/>
-        <item x="253"/>
-        <item x="240"/>
-        <item x="105"/>
-        <item x="213"/>
-        <item x="299"/>
-        <item x="114"/>
-        <item x="131"/>
-        <item x="130"/>
-        <item x="37"/>
-        <item x="308"/>
-        <item x="192"/>
-        <item x="208"/>
-        <item x="184"/>
-        <item x="127"/>
-        <item x="87"/>
-        <item x="235"/>
-        <item x="62"/>
-        <item x="255"/>
-        <item x="279"/>
-        <item x="324"/>
-        <item x="311"/>
-        <item x="148"/>
-        <item x="277"/>
-        <item x="27"/>
-        <item x="52"/>
-        <item x="28"/>
-        <item x="221"/>
-        <item x="320"/>
-        <item x="220"/>
-        <item x="160"/>
-        <item x="226"/>
-        <item x="83"/>
-        <item x="29"/>
-        <item x="119"/>
-        <item x="149"/>
-        <item x="259"/>
-        <item x="180"/>
-        <item x="241"/>
-        <item x="326"/>
-        <item x="296"/>
-        <item x="159"/>
-        <item x="155"/>
-        <item x="247"/>
-        <item x="305"/>
-        <item x="11"/>
-        <item x="199"/>
-        <item x="211"/>
-        <item x="307"/>
-        <item x="145"/>
-        <item x="248"/>
-        <item x="193"/>
-        <item x="218"/>
-        <item x="175"/>
-        <item x="302"/>
-        <item x="294"/>
-        <item x="110"/>
-        <item x="270"/>
-        <item x="113"/>
-        <item x="132"/>
-        <item x="244"/>
-        <item x="103"/>
-        <item x="314"/>
-        <item x="161"/>
-        <item x="123"/>
-        <item x="47"/>
-        <item x="309"/>
-        <item x="166"/>
-        <item x="157"/>
-        <item x="176"/>
-        <item x="16"/>
-        <item x="168"/>
-        <item x="4"/>
-        <item x="223"/>
-        <item x="230"/>
-        <item x="162"/>
-        <item x="169"/>
-        <item x="242"/>
-        <item x="322"/>
-        <item x="48"/>
-        <item x="268"/>
-        <item x="12"/>
-        <item x="30"/>
-        <item x="84"/>
-        <item x="263"/>
-        <item x="202"/>
-        <item x="188"/>
-        <item x="187"/>
-        <item x="0"/>
-        <item x="250"/>
-        <item x="40"/>
-        <item x="7"/>
-        <item x="73"/>
-        <item x="138"/>
-        <item x="266"/>
-        <item x="198"/>
-        <item x="269"/>
-        <item x="260"/>
-        <item x="69"/>
-        <item x="21"/>
-        <item x="278"/>
-        <item x="22"/>
-        <item x="151"/>
-        <item x="68"/>
-        <item x="31"/>
-        <item x="56"/>
-        <item x="76"/>
-        <item x="98"/>
-        <item x="267"/>
-        <item x="256"/>
-        <item x="206"/>
-        <item x="182"/>
-        <item x="164"/>
-        <item x="216"/>
-        <item x="72"/>
-        <item x="85"/>
-        <item x="276"/>
-        <item x="219"/>
-        <item x="228"/>
-        <item x="207"/>
-        <item x="170"/>
-        <item x="190"/>
-        <item x="174"/>
-        <item x="8"/>
-        <item x="254"/>
-        <item x="32"/>
-        <item x="183"/>
-        <item x="88"/>
-        <item x="295"/>
-        <item x="285"/>
-        <item x="61"/>
-        <item x="214"/>
-        <item x="258"/>
-        <item x="100"/>
-        <item x="64"/>
-        <item x="9"/>
-        <item x="232"/>
-        <item x="153"/>
-        <item x="224"/>
-        <item x="23"/>
-        <item x="135"/>
-        <item x="205"/>
-        <item x="287"/>
-        <item x="79"/>
-        <item x="77"/>
-        <item x="24"/>
-        <item x="140"/>
-        <item x="17"/>
-        <item x="191"/>
-        <item x="172"/>
-        <item x="271"/>
-        <item x="290"/>
-        <item x="25"/>
-        <item x="121"/>
-        <item x="243"/>
-        <item x="330"/>
-        <item x="95"/>
-        <item x="3"/>
-        <item x="231"/>
-        <item x="203"/>
-        <item x="237"/>
-        <item x="18"/>
-        <item x="156"/>
-        <item x="264"/>
-        <item x="134"/>
-        <item x="185"/>
-        <item x="239"/>
-        <item x="212"/>
-        <item x="284"/>
-        <item x="126"/>
-        <item x="133"/>
-        <item x="251"/>
-        <item x="319"/>
-        <item x="80"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="273"/>
-        <item x="33"/>
-        <item x="312"/>
-        <item x="89"/>
-        <item x="34"/>
-        <item x="234"/>
-        <item x="197"/>
-        <item x="281"/>
-        <item x="195"/>
-        <item x="167"/>
-        <item x="59"/>
-        <item x="178"/>
-        <item x="1"/>
-        <item x="280"/>
-        <item x="70"/>
-        <item x="2"/>
-        <item x="137"/>
-        <item x="303"/>
-        <item x="115"/>
-        <item x="189"/>
-        <item x="141"/>
-        <item x="233"/>
-        <item x="35"/>
-        <item x="289"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="13"/>
-        <item x="257"/>
-        <item x="101"/>
-        <item x="104"/>
-        <item x="297"/>
-        <item x="19"/>
-        <item x="246"/>
-        <item x="10"/>
-        <item x="310"/>
-        <item x="63"/>
-        <item x="286"/>
-        <item x="5"/>
-        <item x="112"/>
-        <item x="60"/>
-        <item x="204"/>
-        <item x="53"/>
-        <item x="44"/>
-        <item x="38"/>
-        <item x="65"/>
-        <item x="14"/>
-        <item x="54"/>
-        <item x="41"/>
-        <item x="275"/>
-        <item x="82"/>
-        <item x="15"/>
-        <item x="45"/>
-        <item x="315"/>
-        <item x="42"/>
-        <item x="154"/>
-        <item x="283"/>
-        <item x="316"/>
-        <item x="165"/>
-        <item x="46"/>
-        <item x="6"/>
-        <item x="71"/>
-        <item x="51"/>
-        <item x="43"/>
-        <item x="158"/>
-        <item x="238"/>
-        <item x="177"/>
-        <item x="261"/>
-        <item x="163"/>
-        <item x="143"/>
-        <item x="272"/>
-        <item x="236"/>
-        <item x="215"/>
-        <item x="274"/>
-        <item x="117"/>
-        <item x="150"/>
-        <item x="111"/>
-        <item x="142"/>
-        <item x="74"/>
-        <item x="173"/>
-        <item x="90"/>
-        <item x="108"/>
-        <item x="196"/>
-        <item x="313"/>
-        <item x="147"/>
-        <item x="291"/>
-        <item x="146"/>
-        <item x="93"/>
-        <item x="201"/>
-        <item x="118"/>
-        <item x="329"/>
-        <item x="81"/>
-        <item x="152"/>
-        <item x="210"/>
-        <item x="304"/>
-        <item x="323"/>
-        <item x="129"/>
-        <item x="57"/>
-        <item x="171"/>
-        <item x="102"/>
-        <item x="122"/>
-        <item x="222"/>
-        <item x="106"/>
-        <item x="262"/>
-        <item x="116"/>
-        <item x="252"/>
-        <item x="321"/>
-        <item x="86"/>
-        <item x="288"/>
-        <item x="136"/>
-        <item x="20"/>
-        <item x="58"/>
-        <item x="301"/>
-        <item x="249"/>
-        <item x="186"/>
-        <item x="317"/>
-        <item x="328"/>
-        <item x="293"/>
-        <item x="245"/>
-        <item x="39"/>
-        <item x="306"/>
-        <item x="125"/>
-        <item x="36"/>
-        <item x="181"/>
-        <item x="128"/>
-        <item x="75"/>
-        <item x="194"/>
-        <item x="99"/>
-        <item x="107"/>
-        <item x="227"/>
-        <item x="331"/>
-        <item x="282"/>
-        <item x="109"/>
-        <item x="97"/>
-        <item x="144"/>
-        <item x="96"/>
-        <item x="318"/>
-        <item x="139"/>
-        <item x="300"/>
-        <item x="209"/>
-        <item x="26"/>
-        <item x="217"/>
-        <item x="325"/>
-        <item x="92"/>
-        <item x="229"/>
-        <item x="55"/>
-        <item x="292"/>
-        <item x="91"/>
-        <item x="327"/>
-        <item x="265"/>
-        <item x="94"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="20">
-        <item m="1" x="10"/>
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item m="1" x="14"/>
-        <item x="4"/>
-        <item m="1" x="15"/>
-        <item x="5"/>
-        <item m="1" x="16"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="9" showAll="0">
-      <items count="14">
-        <item x="8"/>
-        <item x="6"/>
-        <item m="1" x="10"/>
-        <item x="5"/>
-        <item m="1" x="12"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item x="7"/>
-        <item m="1" x="11"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField dataField="1" numFmtId="9" showAll="0">
-      <items count="15">
-        <item x="3"/>
-        <item m="1" x="7"/>
-        <item m="1" x="10"/>
-        <item m="1" x="8"/>
-        <item m="1" x="12"/>
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item x="2"/>
-        <item m="1" x="13"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item m="1" x="11"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0">
-      <items count="10">
-        <item x="5"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item m="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="9" showAll="0">
-      <items count="75">
-        <item x="12"/>
-        <item m="1" x="37"/>
-        <item m="1" x="62"/>
-        <item x="7"/>
-        <item m="1" x="17"/>
-        <item m="1" x="45"/>
-        <item m="1" x="32"/>
-        <item m="1" x="57"/>
-        <item m="1" x="33"/>
-        <item m="1" x="38"/>
-        <item m="1" x="60"/>
-        <item m="1" x="49"/>
-        <item m="1" x="39"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item m="1" x="50"/>
-        <item m="1" x="43"/>
-        <item x="6"/>
-        <item m="1" x="66"/>
-        <item m="1" x="59"/>
-        <item m="1" x="54"/>
-        <item m="1" x="19"/>
-        <item x="4"/>
-        <item m="1" x="55"/>
-        <item m="1" x="71"/>
-        <item m="1" x="21"/>
-        <item x="9"/>
-        <item m="1" x="61"/>
-        <item m="1" x="72"/>
-        <item m="1" x="63"/>
-        <item x="11"/>
-        <item m="1" x="26"/>
-        <item m="1" x="64"/>
-        <item m="1" x="65"/>
-        <item m="1" x="34"/>
-        <item m="1" x="67"/>
-        <item m="1" x="70"/>
-        <item m="1" x="29"/>
-        <item x="5"/>
-        <item m="1" x="73"/>
-        <item m="1" x="27"/>
-        <item m="1" x="51"/>
-        <item m="1" x="22"/>
-        <item m="1" x="68"/>
-        <item m="1" x="23"/>
-        <item m="1" x="58"/>
-        <item m="1" x="15"/>
-        <item m="1" x="28"/>
-        <item m="1" x="30"/>
-        <item m="1" x="18"/>
-        <item m="1" x="24"/>
-        <item m="1" x="25"/>
-        <item m="1" x="16"/>
-        <item m="1" x="31"/>
-        <item x="2"/>
-        <item m="1" x="20"/>
-        <item m="1" x="36"/>
-        <item m="1" x="69"/>
-        <item m="1" x="40"/>
-        <item m="1" x="41"/>
-        <item x="13"/>
-        <item m="1" x="46"/>
-        <item m="1" x="42"/>
-        <item m="1" x="44"/>
-        <item m="1" x="47"/>
-        <item m="1" x="35"/>
-        <item m="1" x="52"/>
-        <item m="1" x="48"/>
-        <item m="1" x="53"/>
-        <item x="8"/>
-        <item m="1" x="56"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item m="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Promedio de % AVANCE TOPOLOGIA" fld="14" subtotal="average" baseField="0" baseItem="0" numFmtId="9"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F98C296F-25D5-4A48-9252-05CC2E48F289}" name="TablaDinámica5" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A21:A22" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="26">
-    <pivotField showAll="0">
-      <items count="10">
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item x="0"/>
-        <item h="1" x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="333">
-        <item x="298"/>
-        <item x="200"/>
-        <item x="225"/>
-        <item x="120"/>
-        <item x="124"/>
-        <item x="78"/>
-        <item x="179"/>
-        <item x="253"/>
-        <item x="240"/>
-        <item x="105"/>
-        <item x="213"/>
-        <item x="299"/>
-        <item x="114"/>
-        <item x="131"/>
-        <item x="130"/>
-        <item x="37"/>
-        <item x="308"/>
-        <item x="192"/>
-        <item x="208"/>
-        <item x="184"/>
-        <item x="127"/>
-        <item x="87"/>
-        <item x="235"/>
-        <item x="62"/>
-        <item x="255"/>
-        <item x="279"/>
-        <item x="324"/>
-        <item x="311"/>
-        <item x="148"/>
-        <item x="277"/>
-        <item x="27"/>
-        <item x="52"/>
-        <item x="28"/>
-        <item x="221"/>
-        <item x="320"/>
-        <item x="220"/>
-        <item x="160"/>
-        <item x="226"/>
-        <item x="83"/>
-        <item x="29"/>
-        <item x="119"/>
-        <item x="149"/>
-        <item x="259"/>
-        <item x="180"/>
-        <item x="241"/>
-        <item x="326"/>
-        <item x="296"/>
-        <item x="159"/>
-        <item x="155"/>
-        <item x="247"/>
-        <item x="305"/>
-        <item x="11"/>
-        <item x="199"/>
-        <item x="211"/>
-        <item x="307"/>
-        <item x="145"/>
-        <item x="248"/>
-        <item x="193"/>
-        <item x="218"/>
-        <item x="175"/>
-        <item x="302"/>
-        <item x="294"/>
-        <item x="110"/>
-        <item x="270"/>
-        <item x="113"/>
-        <item x="132"/>
-        <item x="244"/>
-        <item x="103"/>
-        <item x="314"/>
-        <item x="161"/>
-        <item x="123"/>
-        <item x="47"/>
-        <item x="309"/>
-        <item x="166"/>
-        <item x="157"/>
-        <item x="176"/>
-        <item x="16"/>
-        <item x="168"/>
-        <item x="4"/>
-        <item x="223"/>
-        <item x="230"/>
-        <item x="162"/>
-        <item x="169"/>
-        <item x="242"/>
-        <item x="322"/>
-        <item x="48"/>
-        <item x="268"/>
-        <item x="12"/>
-        <item x="30"/>
-        <item x="84"/>
-        <item x="263"/>
-        <item x="202"/>
-        <item x="188"/>
-        <item x="187"/>
-        <item x="0"/>
-        <item x="250"/>
-        <item x="40"/>
-        <item x="7"/>
-        <item x="73"/>
-        <item x="138"/>
-        <item x="266"/>
-        <item x="198"/>
-        <item x="269"/>
-        <item x="260"/>
-        <item x="69"/>
-        <item x="21"/>
-        <item x="278"/>
-        <item x="22"/>
-        <item x="151"/>
-        <item x="68"/>
-        <item x="31"/>
-        <item x="56"/>
-        <item x="76"/>
-        <item x="98"/>
-        <item x="267"/>
-        <item x="256"/>
-        <item x="206"/>
-        <item x="182"/>
-        <item x="164"/>
-        <item x="216"/>
-        <item x="72"/>
-        <item x="85"/>
-        <item x="276"/>
-        <item x="219"/>
-        <item x="228"/>
-        <item x="207"/>
-        <item x="170"/>
-        <item x="190"/>
-        <item x="174"/>
-        <item x="8"/>
-        <item x="254"/>
-        <item x="32"/>
-        <item x="183"/>
-        <item x="88"/>
-        <item x="295"/>
-        <item x="285"/>
-        <item x="61"/>
-        <item x="214"/>
-        <item x="258"/>
-        <item x="100"/>
-        <item x="64"/>
-        <item x="9"/>
-        <item x="232"/>
-        <item x="153"/>
-        <item x="224"/>
-        <item x="23"/>
-        <item x="135"/>
-        <item x="205"/>
-        <item x="287"/>
-        <item x="79"/>
-        <item x="77"/>
-        <item x="24"/>
-        <item x="140"/>
-        <item x="17"/>
-        <item x="191"/>
-        <item x="172"/>
-        <item x="271"/>
-        <item x="290"/>
-        <item x="25"/>
-        <item x="121"/>
-        <item x="243"/>
-        <item x="330"/>
-        <item x="95"/>
-        <item x="3"/>
-        <item x="231"/>
-        <item x="203"/>
-        <item x="237"/>
-        <item x="18"/>
-        <item x="156"/>
-        <item x="264"/>
-        <item x="134"/>
-        <item x="185"/>
-        <item x="239"/>
-        <item x="212"/>
-        <item x="284"/>
-        <item x="126"/>
-        <item x="133"/>
-        <item x="251"/>
-        <item x="319"/>
-        <item x="80"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="273"/>
-        <item x="33"/>
-        <item x="312"/>
-        <item x="89"/>
-        <item x="34"/>
-        <item x="234"/>
-        <item x="197"/>
-        <item x="281"/>
-        <item x="195"/>
-        <item x="167"/>
-        <item x="59"/>
-        <item x="178"/>
-        <item x="1"/>
-        <item x="280"/>
-        <item x="70"/>
-        <item x="2"/>
-        <item x="137"/>
-        <item x="303"/>
-        <item x="115"/>
-        <item x="189"/>
-        <item x="141"/>
-        <item x="233"/>
-        <item x="35"/>
-        <item x="289"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="13"/>
-        <item x="257"/>
-        <item x="101"/>
-        <item x="104"/>
-        <item x="297"/>
-        <item x="19"/>
-        <item x="246"/>
-        <item x="10"/>
-        <item x="310"/>
-        <item x="63"/>
-        <item x="286"/>
-        <item x="5"/>
-        <item x="112"/>
-        <item x="60"/>
-        <item x="204"/>
-        <item x="53"/>
-        <item x="44"/>
-        <item x="38"/>
-        <item x="65"/>
-        <item x="14"/>
-        <item x="54"/>
-        <item x="41"/>
-        <item x="275"/>
-        <item x="82"/>
-        <item x="15"/>
-        <item x="45"/>
-        <item x="315"/>
-        <item x="42"/>
-        <item x="154"/>
-        <item x="283"/>
-        <item x="316"/>
-        <item x="165"/>
-        <item x="46"/>
-        <item x="6"/>
-        <item x="71"/>
-        <item x="51"/>
-        <item x="43"/>
-        <item x="158"/>
-        <item x="238"/>
-        <item x="177"/>
-        <item x="261"/>
-        <item x="163"/>
-        <item x="143"/>
-        <item x="272"/>
-        <item x="236"/>
-        <item x="215"/>
-        <item x="274"/>
-        <item x="117"/>
-        <item x="150"/>
-        <item x="111"/>
-        <item x="142"/>
-        <item x="74"/>
-        <item x="173"/>
-        <item x="90"/>
-        <item x="108"/>
-        <item x="196"/>
-        <item x="313"/>
-        <item x="147"/>
-        <item x="291"/>
-        <item x="146"/>
-        <item x="93"/>
-        <item x="201"/>
-        <item x="118"/>
-        <item x="329"/>
-        <item x="81"/>
-        <item x="152"/>
-        <item x="210"/>
-        <item x="304"/>
-        <item x="323"/>
-        <item x="129"/>
-        <item x="57"/>
-        <item x="171"/>
-        <item x="102"/>
-        <item x="122"/>
-        <item x="222"/>
-        <item x="106"/>
-        <item x="262"/>
-        <item x="116"/>
-        <item x="252"/>
-        <item x="321"/>
-        <item x="86"/>
-        <item x="288"/>
-        <item x="136"/>
-        <item x="20"/>
-        <item x="58"/>
-        <item x="301"/>
-        <item x="249"/>
-        <item x="186"/>
-        <item x="317"/>
-        <item x="328"/>
-        <item x="293"/>
-        <item x="245"/>
-        <item x="39"/>
-        <item x="306"/>
-        <item x="125"/>
-        <item x="36"/>
-        <item x="181"/>
-        <item x="128"/>
-        <item x="75"/>
-        <item x="194"/>
-        <item x="99"/>
-        <item x="107"/>
-        <item x="227"/>
-        <item x="331"/>
-        <item x="282"/>
-        <item x="109"/>
-        <item x="97"/>
-        <item x="144"/>
-        <item x="96"/>
-        <item x="318"/>
-        <item x="139"/>
-        <item x="300"/>
-        <item x="209"/>
-        <item x="26"/>
-        <item x="217"/>
-        <item x="325"/>
-        <item x="92"/>
-        <item x="229"/>
-        <item x="55"/>
-        <item x="292"/>
-        <item x="91"/>
-        <item x="327"/>
-        <item x="265"/>
-        <item x="94"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="20">
-        <item m="1" x="10"/>
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item m="1" x="14"/>
-        <item x="4"/>
-        <item m="1" x="15"/>
-        <item x="5"/>
-        <item m="1" x="16"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="9" showAll="0">
-      <items count="14">
-        <item x="8"/>
-        <item x="6"/>
-        <item m="1" x="10"/>
-        <item x="5"/>
-        <item m="1" x="12"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item x="7"/>
-        <item m="1" x="11"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0">
-      <items count="15">
-        <item x="3"/>
-        <item m="1" x="7"/>
-        <item m="1" x="10"/>
-        <item m="1" x="8"/>
-        <item m="1" x="12"/>
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item x="2"/>
-        <item m="1" x="13"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item m="1" x="11"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0">
-      <items count="10">
-        <item x="5"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item m="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="9" showAll="0">
-      <items count="75">
-        <item x="12"/>
-        <item m="1" x="37"/>
-        <item m="1" x="62"/>
-        <item x="7"/>
-        <item m="1" x="17"/>
-        <item m="1" x="45"/>
-        <item m="1" x="32"/>
-        <item m="1" x="57"/>
-        <item m="1" x="33"/>
-        <item m="1" x="38"/>
-        <item m="1" x="60"/>
-        <item m="1" x="49"/>
-        <item m="1" x="39"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item m="1" x="50"/>
-        <item m="1" x="43"/>
-        <item x="6"/>
-        <item m="1" x="66"/>
-        <item m="1" x="59"/>
-        <item m="1" x="54"/>
-        <item m="1" x="19"/>
-        <item x="4"/>
-        <item m="1" x="55"/>
-        <item m="1" x="71"/>
-        <item m="1" x="21"/>
-        <item x="9"/>
-        <item m="1" x="61"/>
-        <item m="1" x="72"/>
-        <item m="1" x="63"/>
-        <item x="11"/>
-        <item m="1" x="26"/>
-        <item m="1" x="64"/>
-        <item m="1" x="65"/>
-        <item m="1" x="34"/>
-        <item m="1" x="67"/>
-        <item m="1" x="70"/>
-        <item m="1" x="29"/>
-        <item x="5"/>
-        <item m="1" x="73"/>
-        <item m="1" x="27"/>
-        <item m="1" x="51"/>
-        <item m="1" x="22"/>
-        <item m="1" x="68"/>
-        <item m="1" x="23"/>
-        <item m="1" x="58"/>
-        <item m="1" x="15"/>
-        <item m="1" x="28"/>
-        <item m="1" x="30"/>
-        <item m="1" x="18"/>
-        <item m="1" x="24"/>
-        <item m="1" x="25"/>
-        <item m="1" x="16"/>
-        <item m="1" x="31"/>
-        <item x="2"/>
-        <item m="1" x="20"/>
-        <item m="1" x="36"/>
-        <item m="1" x="69"/>
-        <item m="1" x="40"/>
-        <item m="1" x="41"/>
-        <item x="13"/>
-        <item m="1" x="46"/>
-        <item m="1" x="42"/>
-        <item m="1" x="44"/>
-        <item m="1" x="47"/>
-        <item m="1" x="35"/>
-        <item m="1" x="52"/>
-        <item m="1" x="48"/>
-        <item m="1" x="53"/>
-        <item x="8"/>
-        <item m="1" x="56"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item m="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Promedio de % AVANCE DIGITALIZACION" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="9"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9EFB6520-6693-4EB2-A84E-85AF318F8007}" name="TablaDinámica4" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="20">
-  <location ref="A37:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="26">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="333">
-        <item x="298"/>
-        <item x="200"/>
-        <item x="225"/>
-        <item x="120"/>
-        <item x="124"/>
-        <item x="78"/>
-        <item x="179"/>
-        <item x="253"/>
-        <item x="240"/>
-        <item x="105"/>
-        <item x="213"/>
-        <item x="299"/>
-        <item x="114"/>
-        <item x="131"/>
-        <item x="130"/>
-        <item x="37"/>
-        <item x="308"/>
-        <item x="192"/>
-        <item x="208"/>
-        <item x="184"/>
-        <item x="127"/>
-        <item x="87"/>
-        <item x="235"/>
-        <item x="62"/>
-        <item x="255"/>
-        <item x="279"/>
-        <item x="324"/>
-        <item x="311"/>
-        <item x="148"/>
-        <item x="277"/>
-        <item x="27"/>
-        <item x="52"/>
-        <item x="28"/>
-        <item x="221"/>
-        <item x="320"/>
-        <item x="220"/>
-        <item x="160"/>
-        <item x="226"/>
-        <item x="83"/>
-        <item x="29"/>
-        <item x="119"/>
-        <item x="149"/>
-        <item x="259"/>
-        <item x="180"/>
-        <item x="241"/>
-        <item x="326"/>
-        <item x="296"/>
-        <item x="159"/>
-        <item x="155"/>
-        <item x="247"/>
-        <item x="305"/>
-        <item x="11"/>
-        <item x="199"/>
-        <item x="211"/>
-        <item x="307"/>
-        <item x="145"/>
-        <item x="248"/>
-        <item x="193"/>
-        <item x="218"/>
-        <item x="175"/>
-        <item x="302"/>
-        <item x="294"/>
-        <item x="110"/>
-        <item x="270"/>
-        <item x="113"/>
-        <item x="132"/>
-        <item x="244"/>
-        <item x="103"/>
-        <item x="314"/>
-        <item x="161"/>
-        <item x="123"/>
-        <item x="47"/>
-        <item x="309"/>
-        <item x="166"/>
-        <item x="157"/>
-        <item x="176"/>
-        <item x="16"/>
-        <item x="168"/>
-        <item x="4"/>
-        <item x="223"/>
-        <item x="230"/>
-        <item x="162"/>
-        <item x="169"/>
-        <item x="242"/>
-        <item x="322"/>
-        <item x="48"/>
-        <item x="268"/>
-        <item x="12"/>
-        <item x="30"/>
-        <item x="84"/>
-        <item x="263"/>
-        <item x="202"/>
-        <item x="188"/>
-        <item x="187"/>
-        <item x="0"/>
-        <item x="250"/>
-        <item x="40"/>
-        <item x="7"/>
-        <item x="73"/>
-        <item x="138"/>
-        <item x="266"/>
-        <item x="198"/>
-        <item x="269"/>
-        <item x="260"/>
-        <item x="69"/>
-        <item x="21"/>
-        <item x="278"/>
-        <item x="22"/>
-        <item x="151"/>
-        <item x="68"/>
-        <item x="31"/>
-        <item x="56"/>
-        <item x="76"/>
-        <item x="98"/>
-        <item x="267"/>
-        <item x="256"/>
-        <item x="206"/>
-        <item x="182"/>
-        <item x="164"/>
-        <item x="216"/>
-        <item x="72"/>
-        <item x="85"/>
-        <item x="276"/>
-        <item x="219"/>
-        <item x="228"/>
-        <item x="207"/>
-        <item x="170"/>
-        <item x="190"/>
-        <item x="174"/>
-        <item x="8"/>
-        <item x="254"/>
-        <item x="32"/>
-        <item x="183"/>
-        <item x="88"/>
-        <item x="295"/>
-        <item x="285"/>
-        <item x="61"/>
-        <item x="214"/>
-        <item x="258"/>
-        <item x="100"/>
-        <item x="64"/>
-        <item x="9"/>
-        <item x="232"/>
-        <item x="153"/>
-        <item x="224"/>
-        <item x="23"/>
-        <item x="135"/>
-        <item x="205"/>
-        <item x="287"/>
-        <item x="79"/>
-        <item x="77"/>
-        <item x="24"/>
-        <item x="140"/>
-        <item x="17"/>
-        <item x="191"/>
-        <item x="172"/>
-        <item x="271"/>
-        <item x="290"/>
-        <item x="25"/>
-        <item x="121"/>
-        <item x="243"/>
-        <item x="330"/>
-        <item x="95"/>
-        <item x="3"/>
-        <item x="231"/>
-        <item x="203"/>
-        <item x="237"/>
-        <item x="18"/>
-        <item x="156"/>
-        <item x="264"/>
-        <item x="134"/>
-        <item x="185"/>
-        <item x="239"/>
-        <item x="212"/>
-        <item x="284"/>
-        <item x="126"/>
-        <item x="133"/>
-        <item x="251"/>
-        <item x="319"/>
-        <item x="80"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="273"/>
-        <item x="33"/>
-        <item x="312"/>
-        <item x="89"/>
-        <item x="34"/>
-        <item x="234"/>
-        <item x="197"/>
-        <item x="281"/>
-        <item x="195"/>
-        <item x="167"/>
-        <item x="59"/>
-        <item x="178"/>
-        <item x="1"/>
-        <item x="280"/>
-        <item x="70"/>
-        <item x="2"/>
-        <item x="137"/>
-        <item x="303"/>
-        <item x="115"/>
-        <item x="189"/>
-        <item x="141"/>
-        <item x="233"/>
-        <item x="35"/>
-        <item x="289"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="13"/>
-        <item x="257"/>
-        <item x="101"/>
-        <item x="104"/>
-        <item x="297"/>
-        <item x="19"/>
-        <item x="246"/>
-        <item x="10"/>
-        <item x="310"/>
-        <item x="63"/>
-        <item x="286"/>
-        <item x="5"/>
-        <item x="112"/>
-        <item x="60"/>
-        <item x="204"/>
-        <item x="53"/>
-        <item x="44"/>
-        <item x="38"/>
-        <item x="65"/>
-        <item x="14"/>
-        <item x="54"/>
-        <item x="41"/>
-        <item x="275"/>
-        <item x="82"/>
-        <item x="15"/>
-        <item x="45"/>
-        <item x="315"/>
-        <item x="42"/>
-        <item x="154"/>
-        <item x="283"/>
-        <item x="316"/>
-        <item x="165"/>
-        <item x="46"/>
-        <item x="6"/>
-        <item x="71"/>
-        <item x="51"/>
-        <item x="43"/>
-        <item x="158"/>
-        <item x="238"/>
-        <item x="177"/>
-        <item x="261"/>
-        <item x="163"/>
-        <item x="143"/>
-        <item x="272"/>
-        <item x="236"/>
-        <item x="215"/>
-        <item x="274"/>
-        <item x="117"/>
-        <item x="150"/>
-        <item x="111"/>
-        <item x="142"/>
-        <item x="74"/>
-        <item x="173"/>
-        <item x="90"/>
-        <item x="108"/>
-        <item x="196"/>
-        <item x="313"/>
-        <item x="147"/>
-        <item x="291"/>
-        <item x="146"/>
-        <item x="93"/>
-        <item x="201"/>
-        <item x="118"/>
-        <item x="329"/>
-        <item x="81"/>
-        <item x="152"/>
-        <item x="210"/>
-        <item x="304"/>
-        <item x="323"/>
-        <item x="129"/>
-        <item x="57"/>
-        <item x="171"/>
-        <item x="102"/>
-        <item x="122"/>
-        <item x="222"/>
-        <item x="106"/>
-        <item x="262"/>
-        <item x="116"/>
-        <item x="252"/>
-        <item x="321"/>
-        <item x="86"/>
-        <item x="288"/>
-        <item x="136"/>
-        <item x="20"/>
-        <item x="58"/>
-        <item x="301"/>
-        <item x="249"/>
-        <item x="186"/>
-        <item x="317"/>
-        <item x="328"/>
-        <item x="293"/>
-        <item x="245"/>
-        <item x="39"/>
-        <item x="306"/>
-        <item x="125"/>
-        <item x="36"/>
-        <item x="181"/>
-        <item x="128"/>
-        <item x="75"/>
-        <item x="194"/>
-        <item x="99"/>
-        <item x="107"/>
-        <item x="227"/>
-        <item x="331"/>
-        <item x="282"/>
-        <item x="109"/>
-        <item x="97"/>
-        <item x="144"/>
-        <item x="96"/>
-        <item x="318"/>
-        <item x="139"/>
-        <item x="300"/>
-        <item x="209"/>
-        <item x="26"/>
-        <item x="217"/>
-        <item x="325"/>
-        <item x="92"/>
-        <item x="229"/>
-        <item x="55"/>
-        <item x="292"/>
-        <item x="91"/>
-        <item x="327"/>
-        <item x="265"/>
-        <item x="94"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" sortType="descending">
-      <items count="20">
-        <item m="1" x="10"/>
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item x="1"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item m="1" x="14"/>
-        <item x="4"/>
-        <item m="1" x="15"/>
-        <item x="5"/>
-        <item m="1" x="16"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="9" showAll="0">
-      <items count="14">
-        <item x="8"/>
-        <item x="6"/>
-        <item m="1" x="10"/>
-        <item x="5"/>
-        <item m="1" x="12"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item x="7"/>
-        <item m="1" x="11"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0">
-      <items count="15">
-        <item x="3"/>
-        <item m="1" x="7"/>
-        <item m="1" x="10"/>
-        <item m="1" x="8"/>
-        <item m="1" x="12"/>
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item x="2"/>
-        <item m="1" x="13"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item m="1" x="11"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0">
-      <items count="10">
-        <item x="5"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item m="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="9" showAll="0">
-      <items count="75">
-        <item x="12"/>
-        <item m="1" x="37"/>
-        <item m="1" x="62"/>
-        <item x="7"/>
-        <item m="1" x="17"/>
-        <item m="1" x="45"/>
-        <item m="1" x="32"/>
-        <item m="1" x="57"/>
-        <item m="1" x="33"/>
-        <item m="1" x="38"/>
-        <item m="1" x="60"/>
-        <item m="1" x="49"/>
-        <item m="1" x="39"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item m="1" x="50"/>
-        <item m="1" x="43"/>
-        <item x="6"/>
-        <item m="1" x="66"/>
-        <item m="1" x="59"/>
-        <item m="1" x="54"/>
-        <item m="1" x="19"/>
-        <item x="4"/>
-        <item m="1" x="55"/>
-        <item m="1" x="71"/>
-        <item m="1" x="21"/>
-        <item x="9"/>
-        <item m="1" x="61"/>
-        <item m="1" x="72"/>
-        <item m="1" x="63"/>
-        <item x="11"/>
-        <item m="1" x="26"/>
-        <item m="1" x="64"/>
-        <item m="1" x="65"/>
-        <item m="1" x="34"/>
-        <item m="1" x="67"/>
-        <item m="1" x="70"/>
-        <item m="1" x="29"/>
-        <item x="5"/>
-        <item m="1" x="73"/>
-        <item m="1" x="27"/>
-        <item m="1" x="51"/>
-        <item m="1" x="22"/>
-        <item m="1" x="68"/>
-        <item m="1" x="23"/>
-        <item m="1" x="58"/>
-        <item m="1" x="15"/>
-        <item m="1" x="28"/>
-        <item m="1" x="30"/>
-        <item m="1" x="18"/>
-        <item m="1" x="24"/>
-        <item m="1" x="25"/>
-        <item m="1" x="16"/>
-        <item m="1" x="31"/>
-        <item x="2"/>
-        <item m="1" x="20"/>
-        <item m="1" x="36"/>
-        <item m="1" x="69"/>
-        <item m="1" x="40"/>
-        <item m="1" x="41"/>
-        <item x="13"/>
-        <item m="1" x="46"/>
-        <item m="1" x="42"/>
-        <item m="1" x="44"/>
-        <item m="1" x="47"/>
-        <item m="1" x="35"/>
-        <item m="1" x="52"/>
-        <item m="1" x="48"/>
-        <item m="1" x="53"/>
-        <item x="8"/>
-        <item m="1" x="56"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item m="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Promedio de %  CONTROL FINAL" fld="24" subtotal="average" baseField="3" baseItem="0" numFmtId="9"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_DEPARTAMENTO" xr10:uid="{15BB8B6F-7E3A-41AE-A90A-6014E49BFCA1}" sourceName="DEPARTAMENTO">
   <pivotTables>
@@ -22388,15 +22533,15 @@
   <data>
     <tabular pivotCacheId="775810863">
       <items count="9">
-        <i x="1"/>
-        <i x="2"/>
-        <i x="3"/>
-        <i x="4"/>
-        <i x="5"/>
-        <i x="6"/>
-        <i x="7"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
+        <i x="5" s="1"/>
+        <i x="6" s="1"/>
+        <i x="7" s="1"/>
         <i x="0" s="1"/>
-        <i x="8"/>
+        <i x="8" s="1"/>
       </items>
     </tabular>
   </data>
@@ -22581,338 +22726,338 @@
   <data>
     <tabular pivotCacheId="775810863">
       <items count="332">
+        <i x="298" s="1"/>
+        <i x="200" s="1"/>
+        <i x="225" s="1"/>
+        <i x="120" s="1"/>
+        <i x="124" s="1"/>
+        <i x="78" s="1"/>
+        <i x="179" s="1"/>
+        <i x="253" s="1"/>
+        <i x="240" s="1"/>
+        <i x="105" s="1"/>
+        <i x="213" s="1"/>
+        <i x="299" s="1"/>
+        <i x="114" s="1"/>
+        <i x="131" s="1"/>
+        <i x="130" s="1"/>
         <i x="37" s="1"/>
+        <i x="308" s="1"/>
+        <i x="192" s="1"/>
+        <i x="208" s="1"/>
+        <i x="184" s="1"/>
+        <i x="127" s="1"/>
+        <i x="87" s="1"/>
+        <i x="235" s="1"/>
+        <i x="62" s="1"/>
+        <i x="255" s="1"/>
+        <i x="279" s="1"/>
+        <i x="324" s="1"/>
+        <i x="311" s="1"/>
+        <i x="148" s="1"/>
+        <i x="277" s="1"/>
         <i x="27" s="1"/>
         <i x="52" s="1"/>
         <i x="28" s="1"/>
+        <i x="221" s="1"/>
+        <i x="320" s="1"/>
+        <i x="220" s="1"/>
+        <i x="160" s="1"/>
+        <i x="226" s="1"/>
+        <i x="83" s="1"/>
         <i x="29" s="1"/>
+        <i x="119" s="1"/>
+        <i x="149" s="1"/>
+        <i x="259" s="1"/>
+        <i x="180" s="1"/>
+        <i x="241" s="1"/>
+        <i x="326" s="1"/>
+        <i x="296" s="1"/>
+        <i x="159" s="1"/>
+        <i x="155" s="1"/>
+        <i x="247" s="1"/>
+        <i x="305" s="1"/>
         <i x="11" s="1"/>
+        <i x="199" s="1"/>
+        <i x="211" s="1"/>
+        <i x="307" s="1"/>
+        <i x="145" s="1"/>
+        <i x="248" s="1"/>
+        <i x="193" s="1"/>
+        <i x="218" s="1"/>
+        <i x="175" s="1"/>
+        <i x="302" s="1"/>
+        <i x="294" s="1"/>
+        <i x="110" s="1"/>
+        <i x="270" s="1"/>
+        <i x="113" s="1"/>
+        <i x="132" s="1"/>
+        <i x="244" s="1"/>
+        <i x="103" s="1"/>
+        <i x="314" s="1"/>
+        <i x="161" s="1"/>
+        <i x="123" s="1"/>
         <i x="47" s="1"/>
+        <i x="309" s="1"/>
+        <i x="166" s="1"/>
+        <i x="157" s="1"/>
+        <i x="176" s="1"/>
         <i x="16" s="1"/>
+        <i x="168" s="1"/>
         <i x="4" s="1"/>
+        <i x="223" s="1"/>
+        <i x="230" s="1"/>
+        <i x="162" s="1"/>
+        <i x="169" s="1"/>
+        <i x="242" s="1"/>
+        <i x="322" s="1"/>
         <i x="48" s="1"/>
+        <i x="268" s="1"/>
         <i x="12" s="1"/>
         <i x="30" s="1"/>
+        <i x="84" s="1"/>
+        <i x="263" s="1"/>
+        <i x="202" s="1"/>
+        <i x="188" s="1"/>
+        <i x="187" s="1"/>
         <i x="0" s="1"/>
+        <i x="250" s="1"/>
         <i x="40" s="1"/>
         <i x="7" s="1"/>
+        <i x="73" s="1"/>
+        <i x="138" s="1"/>
+        <i x="266" s="1"/>
+        <i x="198" s="1"/>
+        <i x="269" s="1"/>
+        <i x="260" s="1"/>
+        <i x="69" s="1"/>
         <i x="21" s="1"/>
+        <i x="278" s="1"/>
         <i x="22" s="1"/>
+        <i x="151" s="1"/>
+        <i x="68" s="1"/>
         <i x="31" s="1"/>
+        <i x="56" s="1"/>
+        <i x="76" s="1"/>
+        <i x="98" s="1"/>
+        <i x="267" s="1"/>
+        <i x="256" s="1"/>
+        <i x="206" s="1"/>
+        <i x="182" s="1"/>
+        <i x="164" s="1"/>
+        <i x="216" s="1"/>
+        <i x="72" s="1"/>
+        <i x="85" s="1"/>
+        <i x="276" s="1"/>
+        <i x="219" s="1"/>
+        <i x="228" s="1"/>
+        <i x="207" s="1"/>
+        <i x="170" s="1"/>
+        <i x="190" s="1"/>
+        <i x="174" s="1"/>
         <i x="8" s="1"/>
+        <i x="254" s="1"/>
         <i x="32" s="1"/>
+        <i x="183" s="1"/>
+        <i x="88" s="1"/>
+        <i x="295" s="1"/>
+        <i x="285" s="1"/>
+        <i x="61" s="1"/>
+        <i x="214" s="1"/>
+        <i x="258" s="1"/>
+        <i x="100" s="1"/>
+        <i x="64" s="1"/>
         <i x="9" s="1"/>
+        <i x="232" s="1"/>
+        <i x="153" s="1"/>
+        <i x="224" s="1"/>
         <i x="23" s="1"/>
+        <i x="135" s="1"/>
+        <i x="205" s="1"/>
+        <i x="287" s="1"/>
+        <i x="79" s="1"/>
+        <i x="77" s="1"/>
         <i x="24" s="1"/>
+        <i x="140" s="1"/>
         <i x="17" s="1"/>
+        <i x="191" s="1"/>
+        <i x="172" s="1"/>
+        <i x="271" s="1"/>
+        <i x="290" s="1"/>
         <i x="25" s="1"/>
+        <i x="121" s="1"/>
+        <i x="243" s="1"/>
+        <i x="330" s="1"/>
+        <i x="95" s="1"/>
         <i x="3" s="1"/>
+        <i x="231" s="1"/>
+        <i x="203" s="1"/>
+        <i x="237" s="1"/>
         <i x="18" s="1"/>
+        <i x="156" s="1"/>
+        <i x="264" s="1"/>
+        <i x="134" s="1"/>
+        <i x="185" s="1"/>
+        <i x="239" s="1"/>
+        <i x="212" s="1"/>
+        <i x="284" s="1"/>
+        <i x="126" s="1"/>
+        <i x="133" s="1"/>
+        <i x="251" s="1"/>
+        <i x="319" s="1"/>
+        <i x="80" s="1"/>
         <i x="49" s="1"/>
         <i x="50" s="1"/>
+        <i x="273" s="1"/>
         <i x="33" s="1"/>
+        <i x="312" s="1"/>
+        <i x="89" s="1"/>
         <i x="34" s="1"/>
+        <i x="234" s="1"/>
+        <i x="197" s="1"/>
+        <i x="281" s="1"/>
+        <i x="195" s="1"/>
+        <i x="167" s="1"/>
+        <i x="59" s="1"/>
+        <i x="178" s="1"/>
         <i x="1" s="1"/>
+        <i x="280" s="1"/>
+        <i x="70" s="1"/>
         <i x="2" s="1"/>
+        <i x="137" s="1"/>
+        <i x="303" s="1"/>
+        <i x="115" s="1"/>
+        <i x="189" s="1"/>
+        <i x="141" s="1"/>
+        <i x="233" s="1"/>
         <i x="35" s="1"/>
+        <i x="289" s="1"/>
+        <i x="66" s="1"/>
+        <i x="67" s="1"/>
         <i x="13" s="1"/>
+        <i x="257" s="1"/>
+        <i x="101" s="1"/>
+        <i x="104" s="1"/>
+        <i x="297" s="1"/>
         <i x="19" s="1"/>
+        <i x="246" s="1"/>
         <i x="10" s="1"/>
+        <i x="310" s="1"/>
+        <i x="63" s="1"/>
+        <i x="286" s="1"/>
         <i x="5" s="1"/>
+        <i x="112" s="1"/>
+        <i x="60" s="1"/>
+        <i x="204" s="1"/>
         <i x="53" s="1"/>
         <i x="44" s="1"/>
         <i x="38" s="1"/>
+        <i x="65" s="1"/>
         <i x="14" s="1"/>
         <i x="54" s="1"/>
         <i x="41" s="1"/>
+        <i x="275" s="1"/>
+        <i x="82" s="1"/>
         <i x="15" s="1"/>
         <i x="45" s="1"/>
+        <i x="315" s="1"/>
         <i x="42" s="1"/>
+        <i x="154" s="1"/>
+        <i x="283" s="1"/>
+        <i x="316" s="1"/>
+        <i x="165" s="1"/>
         <i x="46" s="1"/>
         <i x="6" s="1"/>
+        <i x="71" s="1"/>
         <i x="51" s="1"/>
         <i x="43" s="1"/>
+        <i x="158" s="1"/>
+        <i x="238" s="1"/>
+        <i x="177" s="1"/>
+        <i x="261" s="1"/>
+        <i x="163" s="1"/>
+        <i x="143" s="1"/>
+        <i x="272" s="1"/>
+        <i x="236" s="1"/>
+        <i x="215" s="1"/>
+        <i x="274" s="1"/>
+        <i x="117" s="1"/>
+        <i x="150" s="1"/>
+        <i x="111" s="1"/>
+        <i x="142" s="1"/>
+        <i x="74" s="1"/>
+        <i x="173" s="1"/>
+        <i x="90" s="1"/>
+        <i x="108" s="1"/>
+        <i x="196" s="1"/>
+        <i x="313" s="1"/>
+        <i x="147" s="1"/>
+        <i x="291" s="1"/>
+        <i x="146" s="1"/>
+        <i x="93" s="1"/>
+        <i x="201" s="1"/>
+        <i x="118" s="1"/>
+        <i x="329" s="1"/>
+        <i x="81" s="1"/>
+        <i x="152" s="1"/>
+        <i x="210" s="1"/>
+        <i x="304" s="1"/>
+        <i x="323" s="1"/>
+        <i x="129" s="1"/>
+        <i x="57" s="1"/>
+        <i x="171" s="1"/>
+        <i x="102" s="1"/>
+        <i x="122" s="1"/>
+        <i x="222" s="1"/>
+        <i x="106" s="1"/>
+        <i x="262" s="1"/>
+        <i x="116" s="1"/>
+        <i x="252" s="1"/>
+        <i x="321" s="1"/>
+        <i x="86" s="1"/>
+        <i x="288" s="1"/>
+        <i x="136" s="1"/>
         <i x="20" s="1"/>
+        <i x="58" s="1"/>
+        <i x="301" s="1"/>
+        <i x="249" s="1"/>
+        <i x="186" s="1"/>
+        <i x="317" s="1"/>
+        <i x="328" s="1"/>
+        <i x="293" s="1"/>
+        <i x="245" s="1"/>
         <i x="39" s="1"/>
+        <i x="306" s="1"/>
+        <i x="125" s="1"/>
         <i x="36" s="1"/>
+        <i x="181" s="1"/>
+        <i x="128" s="1"/>
+        <i x="75" s="1"/>
+        <i x="194" s="1"/>
+        <i x="99" s="1"/>
+        <i x="107" s="1"/>
+        <i x="227" s="1"/>
+        <i x="331" s="1"/>
+        <i x="282" s="1"/>
+        <i x="109" s="1"/>
+        <i x="97" s="1"/>
+        <i x="144" s="1"/>
+        <i x="96" s="1"/>
+        <i x="318" s="1"/>
+        <i x="139" s="1"/>
+        <i x="300" s="1"/>
+        <i x="209" s="1"/>
         <i x="26" s="1"/>
+        <i x="217" s="1"/>
+        <i x="325" s="1"/>
+        <i x="92" s="1"/>
+        <i x="229" s="1"/>
         <i x="55" s="1"/>
-        <i x="298" s="1" nd="1"/>
-        <i x="200" s="1" nd="1"/>
-        <i x="225" s="1" nd="1"/>
-        <i x="120" s="1" nd="1"/>
-        <i x="124" s="1" nd="1"/>
-        <i x="78" s="1" nd="1"/>
-        <i x="179" s="1" nd="1"/>
-        <i x="253" s="1" nd="1"/>
-        <i x="240" s="1" nd="1"/>
-        <i x="105" s="1" nd="1"/>
-        <i x="213" s="1" nd="1"/>
-        <i x="299" s="1" nd="1"/>
-        <i x="114" s="1" nd="1"/>
-        <i x="131" s="1" nd="1"/>
-        <i x="130" s="1" nd="1"/>
-        <i x="308" s="1" nd="1"/>
-        <i x="192" s="1" nd="1"/>
-        <i x="208" s="1" nd="1"/>
-        <i x="184" s="1" nd="1"/>
-        <i x="127" s="1" nd="1"/>
-        <i x="87" s="1" nd="1"/>
-        <i x="235" s="1" nd="1"/>
-        <i x="62" s="1" nd="1"/>
-        <i x="255" s="1" nd="1"/>
-        <i x="279" s="1" nd="1"/>
-        <i x="324" s="1" nd="1"/>
-        <i x="311" s="1" nd="1"/>
-        <i x="148" s="1" nd="1"/>
-        <i x="277" s="1" nd="1"/>
-        <i x="221" s="1" nd="1"/>
-        <i x="320" s="1" nd="1"/>
-        <i x="220" s="1" nd="1"/>
-        <i x="160" s="1" nd="1"/>
-        <i x="226" s="1" nd="1"/>
-        <i x="83" s="1" nd="1"/>
-        <i x="119" s="1" nd="1"/>
-        <i x="149" s="1" nd="1"/>
-        <i x="259" s="1" nd="1"/>
-        <i x="180" s="1" nd="1"/>
-        <i x="241" s="1" nd="1"/>
-        <i x="326" s="1" nd="1"/>
-        <i x="296" s="1" nd="1"/>
-        <i x="159" s="1" nd="1"/>
-        <i x="155" s="1" nd="1"/>
-        <i x="247" s="1" nd="1"/>
-        <i x="305" s="1" nd="1"/>
-        <i x="199" s="1" nd="1"/>
-        <i x="211" s="1" nd="1"/>
-        <i x="307" s="1" nd="1"/>
-        <i x="145" s="1" nd="1"/>
-        <i x="248" s="1" nd="1"/>
-        <i x="193" s="1" nd="1"/>
-        <i x="218" s="1" nd="1"/>
-        <i x="175" s="1" nd="1"/>
-        <i x="302" s="1" nd="1"/>
-        <i x="294" s="1" nd="1"/>
-        <i x="110" s="1" nd="1"/>
-        <i x="270" s="1" nd="1"/>
-        <i x="113" s="1" nd="1"/>
-        <i x="132" s="1" nd="1"/>
-        <i x="244" s="1" nd="1"/>
-        <i x="103" s="1" nd="1"/>
-        <i x="314" s="1" nd="1"/>
-        <i x="161" s="1" nd="1"/>
-        <i x="123" s="1" nd="1"/>
-        <i x="309" s="1" nd="1"/>
-        <i x="166" s="1" nd="1"/>
-        <i x="157" s="1" nd="1"/>
-        <i x="176" s="1" nd="1"/>
-        <i x="168" s="1" nd="1"/>
-        <i x="223" s="1" nd="1"/>
-        <i x="230" s="1" nd="1"/>
-        <i x="162" s="1" nd="1"/>
-        <i x="169" s="1" nd="1"/>
-        <i x="242" s="1" nd="1"/>
-        <i x="322" s="1" nd="1"/>
-        <i x="268" s="1" nd="1"/>
-        <i x="84" s="1" nd="1"/>
-        <i x="263" s="1" nd="1"/>
-        <i x="202" s="1" nd="1"/>
-        <i x="188" s="1" nd="1"/>
-        <i x="187" s="1" nd="1"/>
-        <i x="250" s="1" nd="1"/>
-        <i x="73" s="1" nd="1"/>
-        <i x="138" s="1" nd="1"/>
-        <i x="266" s="1" nd="1"/>
-        <i x="198" s="1" nd="1"/>
-        <i x="269" s="1" nd="1"/>
-        <i x="260" s="1" nd="1"/>
-        <i x="69" s="1" nd="1"/>
-        <i x="278" s="1" nd="1"/>
-        <i x="151" s="1" nd="1"/>
-        <i x="68" s="1" nd="1"/>
-        <i x="56" s="1" nd="1"/>
-        <i x="76" s="1" nd="1"/>
-        <i x="98" s="1" nd="1"/>
-        <i x="267" s="1" nd="1"/>
-        <i x="256" s="1" nd="1"/>
-        <i x="206" s="1" nd="1"/>
-        <i x="182" s="1" nd="1"/>
-        <i x="164" s="1" nd="1"/>
-        <i x="216" s="1" nd="1"/>
-        <i x="72" s="1" nd="1"/>
-        <i x="85" s="1" nd="1"/>
-        <i x="276" s="1" nd="1"/>
-        <i x="219" s="1" nd="1"/>
-        <i x="228" s="1" nd="1"/>
-        <i x="207" s="1" nd="1"/>
-        <i x="170" s="1" nd="1"/>
-        <i x="190" s="1" nd="1"/>
-        <i x="174" s="1" nd="1"/>
-        <i x="254" s="1" nd="1"/>
-        <i x="183" s="1" nd="1"/>
-        <i x="88" s="1" nd="1"/>
-        <i x="295" s="1" nd="1"/>
-        <i x="285" s="1" nd="1"/>
-        <i x="61" s="1" nd="1"/>
-        <i x="214" s="1" nd="1"/>
-        <i x="258" s="1" nd="1"/>
-        <i x="100" s="1" nd="1"/>
-        <i x="64" s="1" nd="1"/>
-        <i x="232" s="1" nd="1"/>
-        <i x="153" s="1" nd="1"/>
-        <i x="224" s="1" nd="1"/>
-        <i x="135" s="1" nd="1"/>
-        <i x="205" s="1" nd="1"/>
-        <i x="287" s="1" nd="1"/>
-        <i x="79" s="1" nd="1"/>
-        <i x="77" s="1" nd="1"/>
-        <i x="140" s="1" nd="1"/>
-        <i x="191" s="1" nd="1"/>
-        <i x="172" s="1" nd="1"/>
-        <i x="271" s="1" nd="1"/>
-        <i x="290" s="1" nd="1"/>
-        <i x="121" s="1" nd="1"/>
-        <i x="243" s="1" nd="1"/>
-        <i x="330" s="1" nd="1"/>
-        <i x="95" s="1" nd="1"/>
-        <i x="231" s="1" nd="1"/>
-        <i x="203" s="1" nd="1"/>
-        <i x="237" s="1" nd="1"/>
-        <i x="156" s="1" nd="1"/>
-        <i x="264" s="1" nd="1"/>
-        <i x="134" s="1" nd="1"/>
-        <i x="185" s="1" nd="1"/>
-        <i x="239" s="1" nd="1"/>
-        <i x="212" s="1" nd="1"/>
-        <i x="284" s="1" nd="1"/>
-        <i x="126" s="1" nd="1"/>
-        <i x="133" s="1" nd="1"/>
-        <i x="251" s="1" nd="1"/>
-        <i x="319" s="1" nd="1"/>
-        <i x="80" s="1" nd="1"/>
-        <i x="273" s="1" nd="1"/>
-        <i x="312" s="1" nd="1"/>
-        <i x="89" s="1" nd="1"/>
-        <i x="234" s="1" nd="1"/>
-        <i x="197" s="1" nd="1"/>
-        <i x="281" s="1" nd="1"/>
-        <i x="195" s="1" nd="1"/>
-        <i x="167" s="1" nd="1"/>
-        <i x="59" s="1" nd="1"/>
-        <i x="178" s="1" nd="1"/>
-        <i x="280" s="1" nd="1"/>
-        <i x="70" s="1" nd="1"/>
-        <i x="137" s="1" nd="1"/>
-        <i x="303" s="1" nd="1"/>
-        <i x="115" s="1" nd="1"/>
-        <i x="189" s="1" nd="1"/>
-        <i x="141" s="1" nd="1"/>
-        <i x="233" s="1" nd="1"/>
-        <i x="289" s="1" nd="1"/>
-        <i x="66" s="1" nd="1"/>
-        <i x="67" s="1" nd="1"/>
-        <i x="257" s="1" nd="1"/>
-        <i x="101" s="1" nd="1"/>
-        <i x="104" s="1" nd="1"/>
-        <i x="297" s="1" nd="1"/>
-        <i x="246" s="1" nd="1"/>
-        <i x="310" s="1" nd="1"/>
-        <i x="63" s="1" nd="1"/>
-        <i x="286" s="1" nd="1"/>
-        <i x="112" s="1" nd="1"/>
-        <i x="60" s="1" nd="1"/>
-        <i x="204" s="1" nd="1"/>
-        <i x="65" s="1" nd="1"/>
-        <i x="275" s="1" nd="1"/>
-        <i x="82" s="1" nd="1"/>
-        <i x="315" s="1" nd="1"/>
-        <i x="154" s="1" nd="1"/>
-        <i x="283" s="1" nd="1"/>
-        <i x="316" s="1" nd="1"/>
-        <i x="165" s="1" nd="1"/>
-        <i x="71" s="1" nd="1"/>
-        <i x="158" s="1" nd="1"/>
-        <i x="238" s="1" nd="1"/>
-        <i x="177" s="1" nd="1"/>
-        <i x="261" s="1" nd="1"/>
-        <i x="163" s="1" nd="1"/>
-        <i x="143" s="1" nd="1"/>
-        <i x="272" s="1" nd="1"/>
-        <i x="236" s="1" nd="1"/>
-        <i x="215" s="1" nd="1"/>
-        <i x="274" s="1" nd="1"/>
-        <i x="117" s="1" nd="1"/>
-        <i x="150" s="1" nd="1"/>
-        <i x="111" s="1" nd="1"/>
-        <i x="142" s="1" nd="1"/>
-        <i x="74" s="1" nd="1"/>
-        <i x="173" s="1" nd="1"/>
-        <i x="90" s="1" nd="1"/>
-        <i x="108" s="1" nd="1"/>
-        <i x="196" s="1" nd="1"/>
-        <i x="313" s="1" nd="1"/>
-        <i x="147" s="1" nd="1"/>
-        <i x="291" s="1" nd="1"/>
-        <i x="146" s="1" nd="1"/>
-        <i x="93" s="1" nd="1"/>
-        <i x="201" s="1" nd="1"/>
-        <i x="118" s="1" nd="1"/>
-        <i x="329" s="1" nd="1"/>
-        <i x="81" s="1" nd="1"/>
-        <i x="152" s="1" nd="1"/>
-        <i x="210" s="1" nd="1"/>
-        <i x="304" s="1" nd="1"/>
-        <i x="323" s="1" nd="1"/>
-        <i x="129" s="1" nd="1"/>
-        <i x="57" s="1" nd="1"/>
-        <i x="171" s="1" nd="1"/>
-        <i x="102" s="1" nd="1"/>
-        <i x="122" s="1" nd="1"/>
-        <i x="222" s="1" nd="1"/>
-        <i x="106" s="1" nd="1"/>
-        <i x="262" s="1" nd="1"/>
-        <i x="116" s="1" nd="1"/>
-        <i x="252" s="1" nd="1"/>
-        <i x="321" s="1" nd="1"/>
-        <i x="86" s="1" nd="1"/>
-        <i x="288" s="1" nd="1"/>
-        <i x="136" s="1" nd="1"/>
-        <i x="58" s="1" nd="1"/>
-        <i x="301" s="1" nd="1"/>
-        <i x="249" s="1" nd="1"/>
-        <i x="186" s="1" nd="1"/>
-        <i x="317" s="1" nd="1"/>
-        <i x="328" s="1" nd="1"/>
-        <i x="293" s="1" nd="1"/>
-        <i x="245" s="1" nd="1"/>
-        <i x="306" s="1" nd="1"/>
-        <i x="125" s="1" nd="1"/>
-        <i x="181" s="1" nd="1"/>
-        <i x="128" s="1" nd="1"/>
-        <i x="75" s="1" nd="1"/>
-        <i x="194" s="1" nd="1"/>
-        <i x="99" s="1" nd="1"/>
-        <i x="107" s="1" nd="1"/>
-        <i x="227" s="1" nd="1"/>
-        <i x="331" s="1" nd="1"/>
-        <i x="282" s="1" nd="1"/>
-        <i x="109" s="1" nd="1"/>
-        <i x="97" s="1" nd="1"/>
-        <i x="144" s="1" nd="1"/>
-        <i x="96" s="1" nd="1"/>
-        <i x="318" s="1" nd="1"/>
-        <i x="139" s="1" nd="1"/>
-        <i x="300" s="1" nd="1"/>
-        <i x="209" s="1" nd="1"/>
-        <i x="217" s="1" nd="1"/>
-        <i x="325" s="1" nd="1"/>
-        <i x="92" s="1" nd="1"/>
-        <i x="229" s="1" nd="1"/>
-        <i x="292" s="1" nd="1"/>
-        <i x="91" s="1" nd="1"/>
-        <i x="327" s="1" nd="1"/>
-        <i x="265" s="1" nd="1"/>
-        <i x="94" s="1" nd="1"/>
+        <i x="292" s="1"/>
+        <i x="91" s="1"/>
+        <i x="327" s="1"/>
+        <i x="265" s="1"/>
+        <i x="94" s="1"/>
       </items>
     </tabular>
   </data>
@@ -22947,6 +23092,7 @@
         <i x="6" s="1"/>
         <i x="7" s="1"/>
         <i x="8" s="1"/>
+        <i x="9" s="1"/>
         <i x="10" s="1" nd="1"/>
         <i x="11" s="1" nd="1"/>
         <i x="12" s="1" nd="1"/>
@@ -22956,7 +23102,6 @@
         <i x="16" s="1" nd="1"/>
         <i x="17" s="1" nd="1"/>
         <i x="18" s="1" nd="1"/>
-        <i x="9" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -23188,9 +23333,9 @@
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="DEPARTAMENTO 1" xr10:uid="{B6F5276F-A240-4780-A12B-A3EFAB50992B}" cache="SegmentaciónDeDatos_DEPARTAMENTO" caption="DEPARTAMENTO" columnCount="9" style="SlicerStyleLight2" rowHeight="241300"/>
-  <slicer name="MUNICIPIO 1" xr10:uid="{2DEF364C-DA1C-499D-9196-6324CAFF74E1}" cache="SegmentaciónDeDatos_MUNICIPIO" caption="MUNICIPIO" columnCount="9" style="SlicerStyleLight2" rowHeight="241300"/>
-  <slicer name="TECNICO 1" xr10:uid="{B7FAB62F-E686-45ED-9C1C-63B69BDD4C1E}" cache="SegmentaciónDeDatos_TECNICO" caption="TECNICO" columnCount="5" style="SlicerStyleLight2" rowHeight="241300"/>
+  <slicer name="DEPARTAMENTO 1" xr10:uid="{B6F5276F-A240-4780-A12B-A3EFAB50992B}" cache="SegmentaciónDeDatos_DEPARTAMENTO" caption="DEPARTAMENTO" columnCount="9" style="SlicerStyleLight2" lockedPosition="1" rowHeight="241300"/>
+  <slicer name="MUNICIPIO 1" xr10:uid="{2DEF364C-DA1C-499D-9196-6324CAFF74E1}" cache="SegmentaciónDeDatos_MUNICIPIO" caption="MUNICIPIO" columnCount="9" style="SlicerStyleLight2" lockedPosition="1" rowHeight="241300"/>
+  <slicer name="TECNICO 1" xr10:uid="{B7FAB62F-E686-45ED-9C1C-63B69BDD4C1E}" cache="SegmentaciónDeDatos_TECNICO" caption="TECNICO" columnCount="5" style="SlicerStyleLight2" lockedPosition="1" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -44835,7 +44980,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -44853,7 +44998,7 @@
         <v>481</v>
       </c>
       <c r="B2" s="1">
-        <v>0.96</v>
+        <v>0.79999999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -44866,18 +45011,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B4" s="1">
-        <v>0.71</v>
+        <v>0.64166666666666661</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B5" s="1">
-        <v>0.64166666666666661</v>
+        <v>0.50714285714285712</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -44885,7 +45030,7 @@
         <v>485</v>
       </c>
       <c r="B6" s="1">
-        <v>0.56666666666666676</v>
+        <v>0.48571428571428577</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -44914,7 +45059,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -44922,10 +45067,18 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.46517857142857133</v>
+      <c r="B12" s="1">
+        <v>7.5947521865889198E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -44935,7 +45088,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>0.46517857142857144</v>
+        <v>7.5947521865889212E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -44948,7 +45101,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>0.55714285714285694</v>
+        <v>9.0962099125364404E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -44967,7 +45120,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>0.45714285714285713</v>
+        <v>7.4635568513119532E-2</v>
       </c>
       <c r="C27" t="s">
         <v>94</v>
@@ -44983,7 +45136,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>0.41607142857142859</v>
+        <v>6.7930029154518956E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -44996,7 +45149,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>0.43035714285714294</v>
+        <v>7.0262390670553954E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -45026,10 +45179,74 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="1">
-        <v>0.46517857142857144</v>
+      <c r="B47" s="1">
+        <v>7.5947521865889212E-2</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
@@ -45094,8 +45311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DFD230A-158B-43DE-9438-E417DB266212}">
   <dimension ref="B3:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB29" sqref="AB29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC30" sqref="AC30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45113,267 +45330,267 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="55" t="s">
         <v>464</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="55" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
     </row>
     <row r="4" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="60">
+      <c r="B4" s="56">
         <f>GETPIVOTDATA("%  CONTROL FINAL",ANALISIS!$A$16)</f>
-        <v>0.46517857142857144</v>
-      </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
+        <v>7.5947521865889212E-2</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
     </row>
     <row r="5" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="59" t="s">
         <v>469</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
     </row>
     <row r="14" spans="2:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="55" t="s">
         <v>465</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="E14" s="59" t="s">
+      <c r="C14" s="55"/>
+      <c r="E14" s="55" t="s">
         <v>466</v>
       </c>
-      <c r="F14" s="59"/>
-      <c r="I14" s="59" t="s">
+      <c r="F14" s="55"/>
+      <c r="I14" s="55" t="s">
         <v>467</v>
       </c>
-      <c r="J14" s="59"/>
-      <c r="M14" s="59" t="s">
+      <c r="J14" s="55"/>
+      <c r="M14" s="55" t="s">
         <v>468</v>
       </c>
-      <c r="N14" s="59"/>
+      <c r="N14" s="55"/>
     </row>
     <row r="15" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="60">
+      <c r="B15" s="56">
         <f>GETPIVOTDATA("% AVANCE DIGITALIZACION",ANALISIS!$A$21)</f>
-        <v>0.55714285714285694</v>
-      </c>
-      <c r="C15" s="60"/>
-      <c r="E15" s="60">
+        <v>9.0962099125364404E-2</v>
+      </c>
+      <c r="C15" s="56"/>
+      <c r="E15" s="56">
         <f>GETPIVOTDATA("% AVANCE TOPOLOGIA",ANALISIS!$A$26)</f>
-        <v>0.45714285714285713</v>
-      </c>
-      <c r="F15" s="60"/>
-      <c r="I15" s="60">
+        <v>7.4635568513119532E-2</v>
+      </c>
+      <c r="F15" s="56"/>
+      <c r="I15" s="56">
         <f>GETPIVOTDATA("% AVANCE CONTROL ESTRUCTURA",ANALISIS!$A$29)</f>
-        <v>0.41607142857142859</v>
-      </c>
-      <c r="J15" s="60"/>
-      <c r="M15" s="60">
+        <v>6.7930029154518956E-2</v>
+      </c>
+      <c r="J15" s="56"/>
+      <c r="M15" s="56">
         <f>GETPIVOTDATA("% AVANCE CONTROL SISTEMA",ANALISIS!$A$32)</f>
-        <v>0.43035714285714294</v>
-      </c>
-      <c r="N15" s="60"/>
+        <v>7.0262390670553954E-2</v>
+      </c>
+      <c r="N15" s="56"/>
     </row>
     <row r="16" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
     </row>
     <row r="23" spans="16:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P23" s="58" t="s">
+      <c r="P23" s="60" t="s">
         <v>470</v>
       </c>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="58"/>
-      <c r="Y23" s="58"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="60"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="60"/>
+      <c r="Y23" s="60"/>
     </row>
     <row r="26" spans="16:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="Q26" s="52" t="s">
+      <c r="Q26" s="54" t="s">
         <v>471</v>
       </c>
-      <c r="R26" s="53" t="str">
+      <c r="R26" s="52" t="str">
         <f>ANALISIS!A2</f>
         <v>Roxana N. Mamani Ch.</v>
       </c>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
       <c r="W26" s="5"/>
-      <c r="X26" s="54">
+      <c r="X26" s="53">
         <f>ANALISIS!B2</f>
-        <v>0.96</v>
-      </c>
-      <c r="Y26" s="54"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="Y26" s="53"/>
     </row>
     <row r="27" spans="16:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="Q27" s="52"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
       <c r="W27" s="5"/>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="54"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
     </row>
     <row r="28" spans="16:25" ht="22.5" x14ac:dyDescent="0.25">
       <c r="Q28" s="8"/>
       <c r="R28"/>
     </row>
     <row r="29" spans="16:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="Q29" s="52" t="s">
+      <c r="Q29" s="54" t="s">
         <v>472</v>
       </c>
-      <c r="R29" s="53" t="str">
+      <c r="R29" s="52" t="str">
         <f>ANALISIS!A3</f>
         <v>Carlos R. Maceda L.</v>
       </c>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
       <c r="W29" s="5"/>
-      <c r="X29" s="54">
+      <c r="X29" s="53">
         <f>ANALISIS!B3</f>
         <v>0.71250000000000002</v>
       </c>
-      <c r="Y29" s="54"/>
+      <c r="Y29" s="53"/>
     </row>
     <row r="30" spans="16:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="Q30" s="52"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="52"/>
       <c r="W30" s="5"/>
-      <c r="X30" s="54"/>
-      <c r="Y30" s="54"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
     </row>
     <row r="31" spans="16:25" ht="22.5" x14ac:dyDescent="0.25">
       <c r="Q31" s="8"/>
     </row>
     <row r="32" spans="16:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="Q32" s="52" t="s">
+      <c r="Q32" s="54" t="s">
         <v>473</v>
       </c>
-      <c r="R32" s="53" t="str">
+      <c r="R32" s="52" t="str">
         <f>ANALISIS!A4</f>
-        <v>Carlos S. Flores V.</v>
-      </c>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="53"/>
+        <v>Camilo B. Suarez R.</v>
+      </c>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
       <c r="W32" s="5"/>
-      <c r="X32" s="54">
+      <c r="X32" s="53">
         <f>ANALISIS!B4</f>
-        <v>0.71</v>
-      </c>
-      <c r="Y32" s="54"/>
+        <v>0.64166666666666661</v>
+      </c>
+      <c r="Y32" s="53"/>
     </row>
     <row r="33" spans="17:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="Q33" s="52"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
       <c r="W33" s="5"/>
-      <c r="X33" s="54"/>
-      <c r="Y33" s="54"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
     </row>
     <row r="34" spans="17:25" ht="22.5" x14ac:dyDescent="0.25">
       <c r="Q34" s="8"/>
@@ -45387,76 +45604,80 @@
       <c r="Y34" s="7"/>
     </row>
     <row r="35" spans="17:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="Q35" s="52" t="s">
+      <c r="Q35" s="54" t="s">
         <v>474</v>
       </c>
-      <c r="R35" s="53" t="str">
+      <c r="R35" s="52" t="str">
         <f>ANALISIS!A5</f>
-        <v>Camilo B. Suarez R.</v>
-      </c>
-      <c r="S35" s="53"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="53"/>
-      <c r="V35" s="53"/>
+        <v>Carlos S. Flores V.</v>
+      </c>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="52"/>
       <c r="W35" s="5"/>
-      <c r="X35" s="54">
+      <c r="X35" s="53">
         <f>ANALISIS!B5</f>
-        <v>0.64166666666666661</v>
-      </c>
-      <c r="Y35" s="54"/>
+        <v>0.50714285714285712</v>
+      </c>
+      <c r="Y35" s="53"/>
     </row>
     <row r="36" spans="17:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="Q36" s="52"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53"/>
-      <c r="V36" s="53"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="52"/>
+      <c r="V36" s="52"/>
       <c r="W36" s="5"/>
-      <c r="X36" s="54"/>
-      <c r="Y36" s="54"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="53"/>
     </row>
     <row r="37" spans="17:25" ht="22.5" x14ac:dyDescent="0.25">
       <c r="Q37" s="8"/>
     </row>
     <row r="38" spans="17:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="Q38" s="52" t="s">
+      <c r="Q38" s="54" t="s">
         <v>475</v>
       </c>
-      <c r="R38" s="53" t="str">
+      <c r="R38" s="52" t="str">
         <f>ANALISIS!A6</f>
         <v>Diana E. Teran F.</v>
       </c>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="53"/>
-      <c r="V38" s="53"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="52"/>
+      <c r="V38" s="52"/>
       <c r="W38" s="5"/>
-      <c r="X38" s="54">
+      <c r="X38" s="53">
         <f>ANALISIS!B6</f>
-        <v>0.56666666666666676</v>
-      </c>
-      <c r="Y38" s="54"/>
+        <v>0.48571428571428577</v>
+      </c>
+      <c r="Y38" s="53"/>
     </row>
     <row r="39" spans="17:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="Q39" s="52"/>
-      <c r="R39" s="53"/>
-      <c r="S39" s="53"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="53"/>
-      <c r="V39" s="53"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="52"/>
       <c r="W39" s="5"/>
-      <c r="X39" s="54"/>
-      <c r="Y39" s="54"/>
+      <c r="X39" s="53"/>
+      <c r="Y39" s="53"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="9A7I8z8PNQfz5qcZJJq0LbQ0/20vnUTJqlhKEiSAGPchZhUtoW/N7G6NalcEhx6phIc2JI5y6jP5br6JPQuoPw==" saltValue="RPxbSMXQy2/nupCIGTfUyA==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="28">
-    <mergeCell ref="R29:V30"/>
-    <mergeCell ref="X29:Y30"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="R38:V39"/>
+    <mergeCell ref="X38:Y39"/>
+    <mergeCell ref="R32:V33"/>
+    <mergeCell ref="X32:Y33"/>
+    <mergeCell ref="R35:V36"/>
+    <mergeCell ref="X35:Y36"/>
     <mergeCell ref="D3:Y5"/>
     <mergeCell ref="B12:N12"/>
     <mergeCell ref="P23:Y23"/>
@@ -45470,15 +45691,12 @@
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F16"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="R38:V39"/>
-    <mergeCell ref="X38:Y39"/>
-    <mergeCell ref="R32:V33"/>
-    <mergeCell ref="X32:Y33"/>
-    <mergeCell ref="R35:V36"/>
-    <mergeCell ref="X35:Y36"/>
+    <mergeCell ref="R29:V30"/>
+    <mergeCell ref="X29:Y30"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
